--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -519,7 +519,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -527,34 +527,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.91015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="58.4921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.59375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="58.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="28.64453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4440,273 +4441,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E0AC21D-68C0-49FD-AA79-EE6603FB0B44}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{721E64C7-E210-4AE2-B578-BEC2FDE2B36D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E4325BD-3A52-44AB-8397-E0137C1D0417}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -709,10 +715,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -723,16 +729,16 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -743,13 +749,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -769,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
@@ -789,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -809,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>34</v>
@@ -829,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>36</v>
@@ -840,19 +846,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -860,16 +866,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
@@ -880,7 +886,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>44</v>
@@ -889,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>45</v>
@@ -900,7 +906,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>46</v>
@@ -909,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -920,7 +926,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
@@ -929,7 +935,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -940,7 +946,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -949,7 +955,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -960,16 +966,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
@@ -980,16 +986,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -1000,16 +1006,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -1020,16 +1026,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>59</v>
@@ -1040,16 +1046,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>61</v>
@@ -1060,7 +1066,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>62</v>
@@ -1069,7 +1075,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
@@ -1080,7 +1086,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>64</v>
@@ -1089,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>65</v>
@@ -1100,7 +1106,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>66</v>
@@ -1109,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>67</v>
@@ -1120,16 +1126,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>69</v>
@@ -1140,16 +1146,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>71</v>
@@ -1160,16 +1166,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>73</v>
@@ -1180,16 +1186,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>75</v>
@@ -1200,16 +1206,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>77</v>
@@ -1220,16 +1226,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>79</v>
@@ -1240,7 +1246,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>80</v>
@@ -1249,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>81</v>
@@ -1260,7 +1266,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>82</v>
@@ -1269,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>83</v>
@@ -1280,19 +1286,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1300,16 +1306,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>43</v>
@@ -1320,7 +1326,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>44</v>
@@ -1329,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>45</v>
@@ -1340,7 +1346,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>46</v>
@@ -1349,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>47</v>
@@ -1360,7 +1366,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>48</v>
@@ -1369,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>49</v>
@@ -1380,7 +1386,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>50</v>
@@ -1389,7 +1395,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>51</v>
@@ -1400,16 +1406,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>53</v>
@@ -1420,16 +1426,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>55</v>
@@ -1440,16 +1446,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>57</v>
@@ -1460,16 +1466,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>59</v>
@@ -1480,16 +1486,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>61</v>
@@ -1500,7 +1506,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>62</v>
@@ -1509,7 +1515,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>63</v>
@@ -1520,7 +1526,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>64</v>
@@ -1529,7 +1535,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>65</v>
@@ -1540,7 +1546,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>66</v>
@@ -1549,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>67</v>
@@ -1560,16 +1566,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>69</v>
@@ -1580,16 +1586,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>71</v>
@@ -1600,16 +1606,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>73</v>
@@ -1620,16 +1626,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>75</v>
@@ -1640,16 +1646,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>77</v>
@@ -1660,16 +1666,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>79</v>
@@ -1680,7 +1686,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>80</v>
@@ -1689,7 +1695,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>81</v>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>82</v>
@@ -1709,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>83</v>
@@ -1723,16 +1729,16 @@
         <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1740,16 +1746,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>43</v>
@@ -1760,16 +1766,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>45</v>
@@ -1780,16 +1786,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>47</v>
@@ -1800,16 +1806,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>49</v>
@@ -1820,16 +1826,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>51</v>
@@ -1840,16 +1846,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>53</v>
@@ -1860,16 +1866,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>55</v>
@@ -1880,16 +1886,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>57</v>
@@ -1900,16 +1906,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>59</v>
@@ -1920,16 +1926,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>61</v>
@@ -1940,16 +1946,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>63</v>
@@ -1960,16 +1966,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>65</v>
@@ -1980,16 +1986,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>67</v>
@@ -2000,16 +2006,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>69</v>
@@ -2020,16 +2026,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>71</v>
@@ -2040,16 +2046,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>73</v>
@@ -2060,16 +2066,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>75</v>
@@ -2080,16 +2086,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>77</v>
@@ -2100,16 +2106,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>79</v>
@@ -2120,16 +2126,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>81</v>
@@ -2140,16 +2146,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>83</v>
@@ -2163,16 +2169,16 @@
         <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2180,16 +2186,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>43</v>
@@ -2200,16 +2206,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>45</v>
@@ -2220,16 +2226,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>47</v>
@@ -2240,16 +2246,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>49</v>
@@ -2260,16 +2266,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>51</v>
@@ -2280,16 +2286,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>53</v>
@@ -2300,16 +2306,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>55</v>
@@ -2320,16 +2326,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>57</v>
@@ -2340,16 +2346,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>59</v>
@@ -2360,16 +2366,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>61</v>
@@ -2380,16 +2386,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>63</v>
@@ -2400,16 +2406,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>65</v>
@@ -2420,16 +2426,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>67</v>
@@ -2440,16 +2446,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>69</v>
@@ -2460,16 +2466,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>71</v>
@@ -2480,16 +2486,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>73</v>
@@ -2500,16 +2506,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>75</v>
@@ -2520,16 +2526,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>77</v>
@@ -2540,16 +2546,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>79</v>
@@ -2560,16 +2566,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>81</v>
@@ -2580,16 +2586,16 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>83</v>
@@ -2603,16 +2609,16 @@
         <v>90</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2620,16 +2626,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>43</v>
@@ -2640,16 +2646,16 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>45</v>
@@ -2660,16 +2666,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>47</v>
@@ -2680,16 +2686,16 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>49</v>
@@ -2700,16 +2706,16 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>51</v>
@@ -2720,16 +2726,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>53</v>
@@ -2740,16 +2746,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>55</v>
@@ -2760,16 +2766,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>57</v>
@@ -2780,16 +2786,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>59</v>
@@ -2800,16 +2806,16 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>61</v>
@@ -2820,16 +2826,16 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>63</v>
@@ -2840,16 +2846,16 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>65</v>
@@ -2860,16 +2866,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>67</v>
@@ -2880,16 +2886,16 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>69</v>
@@ -2900,16 +2906,16 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>71</v>
@@ -2920,16 +2926,16 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>73</v>
@@ -2940,16 +2946,16 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>75</v>
@@ -2960,16 +2966,16 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>77</v>
@@ -2980,16 +2986,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>79</v>
@@ -3000,16 +3006,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>81</v>
@@ -3020,16 +3026,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>83</v>
@@ -3043,16 +3049,16 @@
         <v>92</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3060,16 +3066,16 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>43</v>
@@ -3080,16 +3086,16 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>45</v>
@@ -3100,16 +3106,16 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>47</v>
@@ -3120,16 +3126,16 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>49</v>
@@ -3140,16 +3146,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>51</v>
@@ -3160,16 +3166,16 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>53</v>
@@ -3180,16 +3186,16 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>55</v>
@@ -3200,16 +3206,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>57</v>
@@ -3220,16 +3226,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>59</v>
@@ -3240,16 +3246,16 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>61</v>
@@ -3260,16 +3266,16 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>63</v>
@@ -3280,16 +3286,16 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>65</v>
@@ -3300,16 +3306,16 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>67</v>
@@ -3320,16 +3326,16 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>69</v>
@@ -3340,16 +3346,16 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>71</v>
@@ -3360,16 +3366,16 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>73</v>
@@ -3380,16 +3386,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>75</v>
@@ -3400,16 +3406,16 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>77</v>
@@ -3420,16 +3426,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>79</v>
@@ -3440,16 +3446,16 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>81</v>
@@ -3460,16 +3466,16 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>83</v>
@@ -3483,16 +3489,16 @@
         <v>94</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3500,19 +3506,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>9</v>
@@ -3520,19 +3526,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>9</v>
@@ -3540,19 +3546,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>9</v>
@@ -3560,16 +3566,16 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>99</v>
@@ -3580,16 +3586,16 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>101</v>
@@ -3600,19 +3606,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="C153" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -3620,19 +3626,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -3640,19 +3646,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -3660,19 +3666,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -3680,19 +3686,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -3700,16 +3706,16 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>99</v>
@@ -3720,16 +3726,16 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>101</v>
@@ -3740,19 +3746,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>9</v>
@@ -3760,16 +3766,16 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>112</v>
@@ -3780,16 +3786,16 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>114</v>
@@ -3800,16 +3806,16 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>116</v>
@@ -3820,16 +3826,16 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>118</v>
@@ -3840,16 +3846,16 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>120</v>
@@ -3860,19 +3866,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -3880,19 +3886,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -3900,19 +3906,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -3920,19 +3926,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -3940,16 +3946,16 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>128</v>
@@ -3960,16 +3966,16 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>130</v>
@@ -3980,19 +3986,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C172" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4000,16 +4006,16 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>112</v>
@@ -4020,16 +4026,16 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>114</v>
@@ -4040,16 +4046,16 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>116</v>
@@ -4060,16 +4066,16 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>118</v>
@@ -4080,16 +4086,16 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>120</v>
@@ -4100,19 +4106,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4120,19 +4126,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4140,19 +4146,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4160,19 +4166,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -4180,16 +4186,16 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>128</v>
@@ -4200,16 +4206,16 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>130</v>
@@ -4223,16 +4229,16 @@
         <v>133</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E184" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>9</v>
@@ -4240,16 +4246,16 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>138</v>
@@ -4260,16 +4266,16 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>140</v>
@@ -4280,16 +4286,16 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>142</v>
@@ -4300,16 +4306,16 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>144</v>
@@ -4320,16 +4326,16 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>146</v>
@@ -4340,16 +4346,16 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>148</v>
@@ -4360,16 +4366,16 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>150</v>
@@ -4383,16 +4389,16 @@
         <v>151</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4400,7 +4406,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>154</v>
@@ -4409,7 +4415,7 @@
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>155</v>
@@ -4420,7 +4426,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>156</v>
@@ -4429,12 +4435,32 @@
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F194" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -419,7 +419,7 @@
     <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
   </si>
   <si>
-    <t>Pubblicazioni - Omissione di pubblicazione</t>
+    <t>Autorizzazione - omissioni pubblicazioni</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -556,7 +556,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.91015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.65625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.59375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="58.48828125" customWidth="true" bestFit="true"/>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -119,24 +125,12 @@
     <t>dataEvento</t>
   </si>
   <si>
-    <t>Stato</t>
+    <t>Provincia</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.luogoCelebrazione</t>
   </si>
   <si>
-    <t>idStato</t>
-  </si>
-  <si>
-    <t>Stato - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStato</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
     <t>idProvincia</t>
   </si>
   <si>
@@ -308,6 +302,9 @@
     <t>evento.datiEventoMatrimonio.pubblicazione1</t>
   </si>
   <si>
+    <t>{evento.datiEventoMatrimonio.omissionePubblicazione,=,true}</t>
+  </si>
+  <si>
     <t>provincia</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
     <t>riduzioneTerminiPubblicazione</t>
   </si>
   <si>
+    <t>{evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false}</t>
+  </si>
+  <si>
     <t>Provincia Comune</t>
   </si>
   <si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>{evento.datiEventoMatrimonio.omissionePubblicazione,=,false}</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -529,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -541,6 +544,7 @@
     <col min="4" max="4" width="58.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="28.64453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="60.30859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,25 +566,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -602,1165 +612,1342 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -1768,19 +1955,22 @@
         <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="63">
@@ -1788,190 +1978,217 @@
         <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>108</v>
@@ -1980,87 +2197,102 @@
         <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -2068,19 +2300,22 @@
         <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -2088,19 +2323,22 @@
         <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -2108,19 +2346,22 @@
         <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -2128,19 +2369,22 @@
         <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -2148,19 +2392,22 @@
         <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -2168,19 +2415,22 @@
         <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -2188,19 +2438,22 @@
         <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -2208,19 +2461,22 @@
         <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -2228,19 +2484,22 @@
         <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -2248,59 +2507,68 @@
         <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -2308,19 +2576,22 @@
         <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -2328,19 +2599,22 @@
         <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="91">
@@ -2348,19 +2622,22 @@
         <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -2368,19 +2645,22 @@
         <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -2388,19 +2668,22 @@
         <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -2408,19 +2691,22 @@
         <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -2428,19 +2714,22 @@
         <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -2448,19 +2737,22 @@
         <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -2468,19 +2760,22 @@
         <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -2488,59 +2783,68 @@
         <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="101">
@@ -2548,19 +2852,22 @@
         <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="102">
@@ -2568,19 +2875,22 @@
         <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="103">
@@ -2588,19 +2898,22 @@
         <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="104">
@@ -2608,19 +2921,22 @@
         <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="105">
@@ -2628,79 +2944,45 @@
         <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.3.2</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.3.2</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -613,2376 +616,2376 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -305,7 +305,7 @@
     <t>evento.datiEventoMatrimonio.pubblicazione1</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.omissionePubblicazione,=,true}</t>
+    <t>evento.datiEventoMatrimonio.omissionePubblicazione,=,true</t>
   </si>
   <si>
     <t>provincia</t>
@@ -335,7 +335,7 @@
     <t>riduzioneTerminiPubblicazione</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false}</t>
+    <t>evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false</t>
   </si>
   <si>
     <t>Provincia Comune</t>
@@ -434,7 +434,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.omissionePubblicazione,=,false}</t>
+    <t>evento.datiEventoMatrimonio.omissionePubblicazione,=,false</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -547,7 +547,7 @@
     <col min="4" max="4" width="58.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="28.64453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="60.30859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="58.92578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -299,6 +299,45 @@
     <t>evento.intestatari[1]</t>
   </si>
   <si>
+    <t>Testimone 1</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.testimone1</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,1</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>Testimone 2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.testimone2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,2</t>
+  </si>
+  <si>
+    <t>Testimone 3</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.testimone3</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,3</t>
+  </si>
+  <si>
+    <t>Testimone 4</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.testimone4</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,4</t>
+  </si>
+  <si>
     <t>Pubblicazioni</t>
   </si>
   <si>
@@ -477,6 +516,27 @@
   </si>
   <si>
     <t>composizioneCompleta</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Numero di testimoni</t>
+  </si>
+  <si>
+    <t>numeroTestimoni</t>
+  </si>
+  <si>
+    <t>Pubblicazioni avvenute su più comuni</t>
+  </si>
+  <si>
+    <t>pubblicazioneInPiuComuni</t>
+  </si>
+  <si>
+    <t>Omissione di pubblicazione</t>
+  </si>
+  <si>
+    <t>omissionePubblicazione</t>
   </si>
 </sst>
 </file>
@@ -535,14 +595,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="36.65625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.59375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="58.48828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="28.64453125" customWidth="true" bestFit="true"/>
@@ -1958,7 +2018,7 @@
         <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
@@ -1967,7 +2027,7 @@
         <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1981,16 +2041,16 @@
         <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2004,7 +2064,7 @@
         <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
@@ -2013,7 +2073,7 @@
         <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2027,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2050,16 +2110,16 @@
         <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2073,16 +2133,16 @@
         <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2093,898 +2153,2991 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B106" s="2" t="s">
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="E194" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="182">
   <si>
     <t>Sezione</t>
   </si>
@@ -308,9 +308,6 @@
     <t>evento.datiEventoMatrimonio.numeroTestimoni,&lt;,1</t>
   </si>
   <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
     <t>Testimone 2</t>
   </si>
   <si>
@@ -537,6 +534,30 @@
   </si>
   <si>
     <t>omissionePubblicazione</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -595,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -605,7 +626,7 @@
     <col min="2" max="2" width="34.59375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="58.48828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="28.64453125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="58.92578125" customWidth="true" bestFit="true"/>
   </cols>
@@ -2501,10 +2522,10 @@
         <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>96</v>
@@ -2521,7 +2542,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>48</v>
@@ -2530,7 +2551,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>50</v>
@@ -2539,12 +2560,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>51</v>
@@ -2553,7 +2574,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>52</v>
@@ -2562,12 +2583,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>53</v>
@@ -2576,7 +2597,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>54</v>
@@ -2585,12 +2606,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>55</v>
@@ -2599,7 +2620,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>56</v>
@@ -2608,12 +2629,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>57</v>
@@ -2622,7 +2643,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>58</v>
@@ -2631,12 +2652,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>59</v>
@@ -2645,7 +2666,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>60</v>
@@ -2654,12 +2675,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>61</v>
@@ -2668,7 +2689,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>62</v>
@@ -2677,12 +2698,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>63</v>
@@ -2691,7 +2712,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>64</v>
@@ -2700,12 +2721,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>65</v>
@@ -2714,7 +2735,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>66</v>
@@ -2723,12 +2744,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>67</v>
@@ -2737,7 +2758,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>68</v>
@@ -2746,12 +2767,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>69</v>
@@ -2760,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>70</v>
@@ -2769,12 +2790,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>71</v>
@@ -2783,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>72</v>
@@ -2792,12 +2813,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>73</v>
@@ -2806,7 +2827,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>74</v>
@@ -2815,12 +2836,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>75</v>
@@ -2829,7 +2850,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>76</v>
@@ -2838,12 +2859,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>77</v>
@@ -2852,7 +2873,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>78</v>
@@ -2861,12 +2882,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>79</v>
@@ -2875,7 +2896,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>80</v>
@@ -2884,12 +2905,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>81</v>
@@ -2898,7 +2919,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>82</v>
@@ -2907,12 +2928,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>83</v>
@@ -2921,7 +2942,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>84</v>
@@ -2930,12 +2951,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>85</v>
@@ -2944,7 +2965,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>86</v>
@@ -2953,12 +2974,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>87</v>
@@ -2967,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>88</v>
@@ -2976,12 +2997,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>89</v>
@@ -2990,7 +3011,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>90</v>
@@ -2999,21 +3020,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>92</v>
@@ -3022,12 +3043,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>48</v>
@@ -3036,7 +3057,7 @@
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>50</v>
@@ -3045,12 +3066,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>51</v>
@@ -3059,7 +3080,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>52</v>
@@ -3068,12 +3089,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>53</v>
@@ -3082,7 +3103,7 @@
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>54</v>
@@ -3091,12 +3112,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>55</v>
@@ -3105,7 +3126,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>56</v>
@@ -3114,12 +3135,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>57</v>
@@ -3128,7 +3149,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>58</v>
@@ -3137,12 +3158,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>59</v>
@@ -3151,7 +3172,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>60</v>
@@ -3160,12 +3181,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>61</v>
@@ -3174,7 +3195,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>62</v>
@@ -3183,12 +3204,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>63</v>
@@ -3197,7 +3218,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>64</v>
@@ -3206,12 +3227,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>65</v>
@@ -3220,7 +3241,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>66</v>
@@ -3229,12 +3250,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>67</v>
@@ -3243,7 +3264,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>68</v>
@@ -3252,12 +3273,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>69</v>
@@ -3266,7 +3287,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>70</v>
@@ -3275,12 +3296,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>71</v>
@@ -3289,7 +3310,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>72</v>
@@ -3298,12 +3319,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>73</v>
@@ -3312,7 +3333,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>74</v>
@@ -3321,12 +3342,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>75</v>
@@ -3335,7 +3356,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>76</v>
@@ -3344,12 +3365,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>77</v>
@@ -3358,7 +3379,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>78</v>
@@ -3367,12 +3388,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>79</v>
@@ -3381,7 +3402,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>80</v>
@@ -3390,12 +3411,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>81</v>
@@ -3404,7 +3425,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>82</v>
@@ -3413,12 +3434,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>83</v>
@@ -3427,7 +3448,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>84</v>
@@ -3436,12 +3457,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>85</v>
@@ -3450,7 +3471,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>86</v>
@@ -3459,12 +3480,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>87</v>
@@ -3473,7 +3494,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>88</v>
@@ -3482,12 +3503,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>89</v>
@@ -3496,7 +3517,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>90</v>
@@ -3505,21 +3526,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>92</v>
@@ -3528,12 +3549,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>48</v>
@@ -3542,7 +3563,7 @@
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>50</v>
@@ -3551,12 +3572,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>51</v>
@@ -3565,7 +3586,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>52</v>
@@ -3574,12 +3595,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>53</v>
@@ -3588,7 +3609,7 @@
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>54</v>
@@ -3597,12 +3618,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>55</v>
@@ -3611,7 +3632,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>56</v>
@@ -3620,12 +3641,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>57</v>
@@ -3634,7 +3655,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>58</v>
@@ -3643,12 +3664,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>59</v>
@@ -3657,7 +3678,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>60</v>
@@ -3666,12 +3687,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>61</v>
@@ -3680,7 +3701,7 @@
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>62</v>
@@ -3689,12 +3710,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>63</v>
@@ -3703,7 +3724,7 @@
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>64</v>
@@ -3712,12 +3733,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>65</v>
@@ -3726,7 +3747,7 @@
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>66</v>
@@ -3735,12 +3756,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>67</v>
@@ -3749,7 +3770,7 @@
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>68</v>
@@ -3758,12 +3779,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>69</v>
@@ -3772,7 +3793,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>70</v>
@@ -3781,12 +3802,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>71</v>
@@ -3795,7 +3816,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>72</v>
@@ -3804,12 +3825,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>73</v>
@@ -3818,7 +3839,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>74</v>
@@ -3827,12 +3848,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>75</v>
@@ -3841,7 +3862,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>76</v>
@@ -3850,12 +3871,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>77</v>
@@ -3864,7 +3885,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>78</v>
@@ -3873,12 +3894,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>79</v>
@@ -3887,7 +3908,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>80</v>
@@ -3896,12 +3917,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>81</v>
@@ -3910,7 +3931,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>82</v>
@@ -3919,12 +3940,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>83</v>
@@ -3933,7 +3954,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>84</v>
@@ -3942,12 +3963,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>85</v>
@@ -3956,7 +3977,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>86</v>
@@ -3965,12 +3986,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>87</v>
@@ -3979,7 +4000,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>88</v>
@@ -3988,12 +4009,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>89</v>
@@ -4002,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>90</v>
@@ -4011,21 +4032,21 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>92</v>
@@ -4034,12 +4055,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>38</v>
@@ -4048,7 +4069,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>40</v>
@@ -4057,12 +4078,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>41</v>
@@ -4071,21 +4092,21 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>43</v>
@@ -4094,7 +4115,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>44</v>
@@ -4103,12 +4124,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>45</v>
@@ -4117,70 +4138,70 @@
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
@@ -4189,27 +4210,27 @@
         <v>36</v>
       </c>
       <c r="E156" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>40</v>
@@ -4218,12 +4239,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>41</v>
@@ -4232,21 +4253,21 @@
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>43</v>
@@ -4255,7 +4276,7 @@
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>44</v>
@@ -4264,12 +4285,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>45</v>
@@ -4278,79 +4299,79 @@
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="E163" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4361,19 +4382,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4384,19 +4405,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4407,19 +4428,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4430,19 +4451,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4453,19 +4474,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4476,16 +4497,16 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>15</v>
@@ -4499,19 +4520,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4522,16 +4543,16 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>18</v>
@@ -4545,19 +4566,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4568,19 +4589,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4591,19 +4612,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4614,19 +4635,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4637,19 +4658,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="E176" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4660,19 +4681,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="E177" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4683,19 +4704,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4706,19 +4727,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="E179" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4729,19 +4750,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4752,16 +4773,16 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>15</v>
@@ -4775,19 +4796,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="E182" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4798,16 +4819,16 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>18</v>
@@ -4821,19 +4842,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="E184" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4844,19 +4865,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="E185" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4867,19 +4888,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="E186" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4890,171 +4911,171 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -5063,7 +5084,7 @@
         <v>14</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5074,10 +5095,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5086,7 +5107,7 @@
         <v>36</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5097,10 +5118,10 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5109,7 +5130,7 @@
         <v>36</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5120,10 +5141,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5132,12 +5153,81 @@
         <v>36</v>
       </c>
       <c r="E197" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
+      <c r="B198" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="184">
   <si>
     <t>Sezione</t>
   </si>
@@ -221,6 +221,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -434,22 +440,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto di Nascita della sposa</t>
@@ -616,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1260,7 +1266,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>49</v>
@@ -1352,7 +1358,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>49</v>
@@ -1467,7 +1473,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>49</v>
@@ -1513,7 +1519,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>49</v>
@@ -1530,19 +1536,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1559,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1582,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1605,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1628,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1651,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1674,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1697,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1720,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1743,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1766,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1789,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1806,19 +1812,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1835,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1858,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1881,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1904,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1950,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1973,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1990,19 +1996,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2019,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2039,22 +2045,22 @@
         <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -2062,2454 +2068,2454 @@
         <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="E154" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E160" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C161" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="C163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4520,19 +4526,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4543,19 +4549,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4566,19 +4572,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4589,19 +4595,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4612,19 +4618,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4635,19 +4641,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4658,19 +4664,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4681,19 +4687,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4704,19 +4710,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4727,19 +4733,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4750,19 +4756,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4773,19 +4779,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4796,19 +4802,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4819,19 +4825,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4842,19 +4848,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4865,19 +4871,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4888,19 +4894,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4914,22 +4920,22 @@
         <v>148</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188">
@@ -4937,22 +4943,22 @@
         <v>148</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189">
@@ -4960,22 +4966,22 @@
         <v>148</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190">
@@ -4983,22 +4989,22 @@
         <v>148</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191">
@@ -5006,22 +5012,22 @@
         <v>148</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192">
@@ -5029,205 +5035,343 @@
         <v>148</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D200" s="2" t="s">
+      <c r="C205" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
+      <c r="B206" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -2347,7 +2347,7 @@
         <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>98</v>
@@ -2370,7 +2370,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>98</v>
@@ -2876,7 +2876,7 @@
         <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>101</v>
@@ -2899,7 +2899,7 @@
         <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>101</v>
@@ -3405,7 +3405,7 @@
         <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>104</v>
@@ -3428,7 +3428,7 @@
         <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>104</v>
@@ -3934,7 +3934,7 @@
         <v>71</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>107</v>
@@ -3957,7 +3957,7 @@
         <v>73</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>107</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="192">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -622,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1559,19 +1583,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1606,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1629,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1652,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1675,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1698,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1721,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1744,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1767,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1790,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1813,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1836,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1859,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1882,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1905,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1928,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1951,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1974,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1997,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2020,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2043,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2066,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2089,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2088,2468 +2112,2468 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E170" s="2" t="s">
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>130</v>
@@ -4558,148 +4582,148 @@
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C176" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4710,19 +4734,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4733,19 +4757,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4756,19 +4780,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4779,19 +4803,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4802,19 +4826,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4825,19 +4849,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4848,19 +4872,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4871,19 +4895,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4894,19 +4918,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4917,19 +4941,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -4940,19 +4964,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -4963,19 +4987,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -4986,19 +5010,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5009,19 +5033,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5032,19 +5056,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5055,180 +5079,180 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C198" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5239,139 +5263,323 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E206" s="2" t="s">
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="200">
   <si>
     <t>Sezione</t>
   </si>
@@ -368,10 +368,28 @@
     <t>Pubblicazioni</t>
   </si>
   <si>
+    <t>Riduzione dei termini</t>
+  </si>
+  <si>
+    <t>riduzioneTerminiPubblicazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.omissionePubblicazione,=,true</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
     <t>evento.datiEventoMatrimonio.pubblicazione1</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.omissionePubblicazione,=,true</t>
+    <t>idNazione</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazione</t>
   </si>
   <si>
     <t>provincia</t>
@@ -380,6 +398,18 @@
     <t>comune</t>
   </si>
   <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
+  </si>
+  <si>
     <t>Data Inizio</t>
   </si>
   <si>
@@ -392,22 +422,16 @@
     <t>dataFine</t>
   </si>
   <si>
-    <t>Pubblicazioni altro comune</t>
-  </si>
-  <si>
-    <t>Riduzione dei termini</t>
-  </si>
-  <si>
-    <t>riduzioneTerminiPubblicazione</t>
+    <t>Pubblicazioni altro comune o consolato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.pubblicazione2</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.pubblicazioneInPiuComuni,=,false</t>
   </si>
   <si>
     <t>Provincia Comune</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.pubblicazione2</t>
   </si>
   <si>
     <t>Atto di Nascita dello sposo</t>
@@ -646,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2877,7 +2901,7 @@
         <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>109</v>
@@ -3406,7 +3430,7 @@
         <v>53</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>112</v>
@@ -3935,7 +3959,7 @@
         <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>115</v>
@@ -4415,22 +4439,22 @@
         <v>117</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165">
@@ -4438,22 +4462,22 @@
         <v>117</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E165" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="166">
@@ -4461,22 +4485,22 @@
         <v>117</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167">
@@ -4484,22 +4508,22 @@
         <v>117</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168">
@@ -4507,22 +4531,22 @@
         <v>117</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169">
@@ -4530,151 +4554,151 @@
         <v>117</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>123</v>
@@ -4683,12 +4707,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>124</v>
@@ -4697,7 +4721,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>125</v>
@@ -4706,208 +4730,208 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4918,19 +4942,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4941,19 +4965,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -4964,19 +4988,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -4987,19 +5011,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5010,19 +5034,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5033,19 +5057,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5056,19 +5080,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5079,19 +5103,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5102,19 +5126,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5125,19 +5149,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5148,19 +5172,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5171,19 +5195,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5194,19 +5218,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5217,19 +5241,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5240,19 +5264,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5263,180 +5287,180 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="E203" s="2" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5447,139 +5471,323 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E214" s="2" t="s">
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="202">
   <si>
     <t>Sezione</t>
   </si>
@@ -173,6 +173,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -227,13 +233,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -670,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H222"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1130,7 +1136,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>49</v>
@@ -1222,7 +1228,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>49</v>
@@ -1337,7 +1343,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>49</v>
@@ -1429,7 +1435,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>49</v>
@@ -1544,7 +1550,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>49</v>
@@ -1590,7 +1596,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>49</v>
@@ -1699,19 +1705,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1728,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1751,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1774,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1797,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1820,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1889,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1912,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1935,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1981,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2004,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2096,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2113,19 +2119,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2136,19 +2142,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2165,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2211,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2234,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2257,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2280,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2303,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2323,7 +2329,7 @@
         <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
@@ -2332,13 +2338,13 @@
         <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -2346,2730 +2352,2730 @@
         <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="E121" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="E142" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="E164" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E169" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5080,19 +5086,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5103,19 +5109,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5126,19 +5132,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5149,19 +5155,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5172,19 +5178,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5195,19 +5201,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5218,19 +5224,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5241,19 +5247,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5264,19 +5270,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5287,19 +5293,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5310,19 +5316,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C202" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5333,19 +5339,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5356,19 +5362,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5379,19 +5385,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5402,19 +5408,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5425,19 +5431,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -5448,19 +5454,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5474,22 +5480,22 @@
         <v>166</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E209" s="2" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210">
@@ -5497,22 +5503,22 @@
         <v>166</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211">
@@ -5520,22 +5526,22 @@
         <v>166</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212">
@@ -5543,22 +5549,22 @@
         <v>166</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213">
@@ -5566,22 +5572,22 @@
         <v>166</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214">
@@ -5589,205 +5595,343 @@
         <v>166</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D222" s="2" t="s">
+      <c r="C227" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E222" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="2" t="s">
+      <c r="B228" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="204">
   <si>
     <t>Sezione</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -676,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -929,7 +935,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -1412,7 +1418,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>49</v>
@@ -1435,7 +1441,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>49</v>
@@ -1573,7 +1579,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>49</v>
@@ -1619,7 +1625,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>49</v>
@@ -1728,19 +1734,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1757,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1780,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1803,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1826,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1849,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1872,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1895,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1918,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1941,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1964,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1987,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2010,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2033,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2056,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2079,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2102,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2125,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2148,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2171,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2194,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2240,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2263,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2286,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2309,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2332,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2355,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2375,7 +2381,7 @@
         <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
@@ -2384,13 +2390,13 @@
         <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -2398,2822 +2404,2822 @@
         <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="E148" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="E170" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E172" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5224,19 +5230,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5247,19 +5253,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5270,19 +5276,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5293,19 +5299,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5316,19 +5322,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5339,19 +5345,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5362,19 +5368,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5385,19 +5391,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5408,19 +5414,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5431,19 +5437,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -5454,19 +5460,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="C208" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5477,19 +5483,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5500,19 +5506,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5523,19 +5529,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5546,19 +5552,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5569,19 +5575,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5592,19 +5598,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -5618,22 +5624,22 @@
         <v>168</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E215" s="2" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216">
@@ -5641,22 +5647,22 @@
         <v>168</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217">
@@ -5664,22 +5670,22 @@
         <v>168</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218">
@@ -5687,22 +5693,22 @@
         <v>168</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219">
@@ -5710,22 +5716,22 @@
         <v>168</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220">
@@ -5733,205 +5739,343 @@
         <v>168</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="C231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D228" s="2" t="s">
+      <c r="C233" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E228" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
+      <c r="B234" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="206">
   <si>
     <t>Sezione</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -682,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1602,7 +1608,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>49</v>
@@ -1648,7 +1654,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>49</v>
@@ -1757,19 +1763,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1786,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1809,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1832,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1855,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1872,19 +1878,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1895,19 +1901,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1918,19 +1924,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1941,19 +1947,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1964,19 +1970,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1993,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2016,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2039,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2062,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2085,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2108,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2154,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2223,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2269,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2292,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2315,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2338,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2401,19 +2407,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2427,7 +2433,7 @@
         <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
@@ -2436,13 +2442,13 @@
         <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -2450,2914 +2456,2914 @@
         <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="E176" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E180" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C192" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5368,19 +5374,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5391,19 +5397,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5414,19 +5420,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5437,19 +5443,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -5460,19 +5466,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5483,19 +5489,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5506,19 +5512,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5529,19 +5535,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5552,19 +5558,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5575,19 +5581,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5598,19 +5604,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -5621,19 +5627,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -5644,19 +5650,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5667,19 +5673,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -5690,19 +5696,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -5713,19 +5719,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -5736,19 +5742,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -5762,22 +5768,22 @@
         <v>170</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="E221" s="2" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="222">
@@ -5785,22 +5791,22 @@
         <v>170</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223">
@@ -5808,22 +5814,22 @@
         <v>170</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224">
@@ -5831,22 +5837,22 @@
         <v>170</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225">
@@ -5854,22 +5860,22 @@
         <v>170</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226">
@@ -5877,205 +5883,343 @@
         <v>170</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D234" s="2" t="s">
+      <c r="C239" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E234" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="2" t="s">
+      <c r="B240" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -516,6 +516,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -688,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H240"/>
+  <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5627,19 +5633,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -5650,19 +5656,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5673,19 +5679,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -5696,19 +5702,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -5719,19 +5725,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -5742,19 +5748,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -5765,19 +5771,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5788,19 +5794,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5811,19 +5817,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5834,19 +5840,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5857,19 +5863,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5880,19 +5886,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -5906,22 +5912,22 @@
         <v>172</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="E227" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228">
@@ -5929,183 +5935,183 @@
         <v>172</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="236">
@@ -6113,16 +6119,16 @@
         <v>191</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
@@ -6133,10 +6139,10 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
@@ -6145,7 +6151,7 @@
         <v>36</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6156,19 +6162,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -6179,19 +6185,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C239" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
@@ -6202,24 +6208,70 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D240" s="2" t="s">
+      <c r="C241" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E240" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="2" t="s">
+      <c r="B242" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -694,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -993,13 +999,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -1013,16 +1019,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -1036,13 +1042,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -1065,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1088,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1102,19 +1108,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -1125,16 +1131,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -1148,16 +1154,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -1171,16 +1177,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -1194,7 +1200,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
@@ -1203,7 +1209,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1217,7 +1223,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -1226,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1240,7 +1246,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -1249,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1263,16 +1269,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1286,7 +1292,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1295,7 +1301,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1309,7 +1315,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1318,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1332,7 +1338,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1341,7 +1347,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1355,7 +1361,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1364,7 +1370,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1378,16 +1384,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1401,7 +1407,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1410,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1424,16 +1430,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1447,7 +1453,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1456,7 +1462,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1470,7 +1476,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1479,7 +1485,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1493,7 +1499,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1502,7 +1508,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1516,7 +1522,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1525,7 +1531,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1539,7 +1545,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1548,7 +1554,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1571,7 +1577,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1585,7 +1591,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1594,7 +1600,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1608,7 +1614,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1617,7 +1623,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1631,16 +1637,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1654,7 +1660,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1663,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1677,16 +1683,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1709,7 +1715,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1723,7 +1729,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1732,7 +1738,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1755,7 +1761,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1769,7 +1775,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1778,7 +1784,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1815,16 +1821,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -1838,16 +1844,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>54</v>
@@ -1861,16 +1867,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>56</v>
@@ -1884,7 +1890,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>57</v>
@@ -1893,7 +1899,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
@@ -1907,7 +1913,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -1916,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
@@ -1930,7 +1936,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -1939,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>62</v>
@@ -1953,16 +1959,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>64</v>
@@ -1976,7 +1982,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -1985,7 +1991,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>66</v>
@@ -1999,7 +2005,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>67</v>
@@ -2008,7 +2014,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
@@ -2022,7 +2028,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
@@ -2031,7 +2037,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>70</v>
@@ -2045,7 +2051,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -2054,7 +2060,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -2068,16 +2074,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -2091,7 +2097,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
@@ -2100,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -2114,16 +2120,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -2137,7 +2143,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -2146,7 +2152,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -2160,7 +2166,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -2169,7 +2175,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -2183,7 +2189,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
@@ -2192,7 +2198,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -2215,7 +2221,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -2229,7 +2235,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
@@ -2238,7 +2244,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -2252,7 +2258,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2261,7 +2267,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2275,7 +2281,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>91</v>
@@ -2284,7 +2290,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>92</v>
@@ -2298,7 +2304,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
@@ -2307,7 +2313,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>94</v>
@@ -2321,16 +2327,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>96</v>
@@ -2344,7 +2350,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>97</v>
@@ -2353,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>98</v>
@@ -2367,16 +2373,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>100</v>
@@ -2390,7 +2396,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>101</v>
@@ -2399,7 +2405,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>102</v>
@@ -2413,7 +2419,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
@@ -2422,7 +2428,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>104</v>
@@ -2436,7 +2442,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>105</v>
@@ -2445,7 +2451,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>106</v>
@@ -2459,7 +2465,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>107</v>
@@ -2468,7 +2474,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>108</v>
@@ -2485,7 +2491,7 @@
         <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
@@ -2494,27 +2500,27 @@
         <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>52</v>
@@ -2523,21 +2529,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>54</v>
@@ -2546,21 +2552,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>56</v>
@@ -2569,12 +2575,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>57</v>
@@ -2583,7 +2589,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>58</v>
@@ -2592,12 +2598,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -2606,7 +2612,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>60</v>
@@ -2615,12 +2621,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>61</v>
@@ -2629,7 +2635,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
@@ -2638,21 +2644,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>64</v>
@@ -2661,12 +2667,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>65</v>
@@ -2675,7 +2681,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>66</v>
@@ -2684,12 +2690,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>67</v>
@@ -2698,7 +2704,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -2707,12 +2713,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>69</v>
@@ -2721,7 +2727,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>70</v>
@@ -2730,12 +2736,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
@@ -2744,7 +2750,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>72</v>
@@ -2753,12 +2759,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>73</v>
@@ -2767,7 +2773,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>74</v>
@@ -2776,12 +2782,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -2790,7 +2796,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>76</v>
@@ -2799,12 +2805,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -2813,7 +2819,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>78</v>
@@ -2822,12 +2828,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2836,7 +2842,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>80</v>
@@ -2845,12 +2851,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>81</v>
@@ -2859,7 +2865,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>82</v>
@@ -2868,12 +2874,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>83</v>
@@ -2882,7 +2888,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>84</v>
@@ -2891,12 +2897,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>85</v>
@@ -2905,7 +2911,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>86</v>
@@ -2914,12 +2920,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>87</v>
@@ -2928,7 +2934,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>88</v>
@@ -2937,12 +2943,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>89</v>
@@ -2951,7 +2957,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>90</v>
@@ -2960,12 +2966,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>91</v>
@@ -2974,7 +2980,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>92</v>
@@ -2983,12 +2989,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>93</v>
@@ -2997,7 +3003,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>94</v>
@@ -3006,21 +3012,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>96</v>
@@ -3029,12 +3035,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -3043,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>98</v>
@@ -3052,21 +3058,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>100</v>
@@ -3075,44 +3081,44 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>52</v>
@@ -3121,21 +3127,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>54</v>
@@ -3144,21 +3150,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>56</v>
@@ -3167,12 +3173,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>57</v>
@@ -3181,7 +3187,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>58</v>
@@ -3190,12 +3196,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>59</v>
@@ -3204,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>60</v>
@@ -3213,12 +3219,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>61</v>
@@ -3227,7 +3233,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>62</v>
@@ -3236,21 +3242,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>64</v>
@@ -3259,12 +3265,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>65</v>
@@ -3273,7 +3279,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>66</v>
@@ -3282,12 +3288,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>67</v>
@@ -3296,7 +3302,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>68</v>
@@ -3305,12 +3311,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>69</v>
@@ -3319,7 +3325,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>70</v>
@@ -3328,12 +3334,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>71</v>
@@ -3342,7 +3348,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>72</v>
@@ -3351,12 +3357,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>73</v>
@@ -3365,7 +3371,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>74</v>
@@ -3374,12 +3380,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>75</v>
@@ -3388,7 +3394,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>76</v>
@@ -3397,12 +3403,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>77</v>
@@ -3411,7 +3417,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>78</v>
@@ -3420,12 +3426,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>79</v>
@@ -3434,7 +3440,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>80</v>
@@ -3443,12 +3449,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>81</v>
@@ -3457,7 +3463,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>82</v>
@@ -3466,12 +3472,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
@@ -3480,7 +3486,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>84</v>
@@ -3489,12 +3495,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>85</v>
@@ -3503,7 +3509,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>86</v>
@@ -3512,12 +3518,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>87</v>
@@ -3526,7 +3532,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>88</v>
@@ -3535,12 +3541,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>89</v>
@@ -3549,7 +3555,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>90</v>
@@ -3558,12 +3564,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>91</v>
@@ -3572,7 +3578,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>92</v>
@@ -3581,12 +3587,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>93</v>
@@ -3595,7 +3601,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>94</v>
@@ -3604,21 +3610,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>96</v>
@@ -3627,12 +3633,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>97</v>
@@ -3641,7 +3647,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>98</v>
@@ -3650,21 +3656,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>100</v>
@@ -3673,44 +3679,44 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>52</v>
@@ -3719,21 +3725,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>54</v>
@@ -3742,21 +3748,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>56</v>
@@ -3765,12 +3771,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>57</v>
@@ -3779,7 +3785,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>58</v>
@@ -3788,12 +3794,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>59</v>
@@ -3802,7 +3808,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>60</v>
@@ -3811,12 +3817,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>61</v>
@@ -3825,7 +3831,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>62</v>
@@ -3834,21 +3840,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>64</v>
@@ -3857,12 +3863,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>65</v>
@@ -3871,7 +3877,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>66</v>
@@ -3880,12 +3886,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>67</v>
@@ -3894,7 +3900,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>68</v>
@@ -3903,12 +3909,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>69</v>
@@ -3917,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>70</v>
@@ -3926,12 +3932,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>71</v>
@@ -3940,7 +3946,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>72</v>
@@ -3949,12 +3955,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>73</v>
@@ -3963,7 +3969,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>74</v>
@@ -3972,12 +3978,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>75</v>
@@ -3986,7 +3992,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>76</v>
@@ -3995,12 +4001,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>77</v>
@@ -4009,7 +4015,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>78</v>
@@ -4018,12 +4024,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>79</v>
@@ -4032,7 +4038,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>80</v>
@@ -4041,12 +4047,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>81</v>
@@ -4055,7 +4061,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>82</v>
@@ -4064,12 +4070,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>83</v>
@@ -4078,7 +4084,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>84</v>
@@ -4087,12 +4093,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
@@ -4101,7 +4107,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>86</v>
@@ -4110,12 +4116,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>87</v>
@@ -4124,7 +4130,7 @@
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>88</v>
@@ -4133,12 +4139,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>89</v>
@@ -4147,7 +4153,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>90</v>
@@ -4156,12 +4162,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>91</v>
@@ -4170,7 +4176,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>92</v>
@@ -4179,12 +4185,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>93</v>
@@ -4193,7 +4199,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>94</v>
@@ -4202,21 +4208,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>96</v>
@@ -4225,12 +4231,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>97</v>
@@ -4239,7 +4245,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>98</v>
@@ -4248,21 +4254,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>100</v>
@@ -4271,44 +4277,44 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>52</v>
@@ -4317,21 +4323,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>54</v>
@@ -4340,21 +4346,21 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>56</v>
@@ -4363,12 +4369,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>57</v>
@@ -4377,7 +4383,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>58</v>
@@ -4386,12 +4392,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>59</v>
@@ -4400,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>60</v>
@@ -4409,12 +4415,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>61</v>
@@ -4423,7 +4429,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>62</v>
@@ -4432,21 +4438,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>64</v>
@@ -4455,12 +4461,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>65</v>
@@ -4469,7 +4475,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>66</v>
@@ -4478,12 +4484,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>67</v>
@@ -4492,7 +4498,7 @@
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>68</v>
@@ -4501,12 +4507,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>69</v>
@@ -4515,7 +4521,7 @@
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>70</v>
@@ -4524,12 +4530,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>71</v>
@@ -4538,7 +4544,7 @@
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>72</v>
@@ -4547,12 +4553,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>73</v>
@@ -4561,7 +4567,7 @@
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>74</v>
@@ -4570,12 +4576,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>75</v>
@@ -4584,7 +4590,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>76</v>
@@ -4593,12 +4599,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>77</v>
@@ -4607,7 +4613,7 @@
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>78</v>
@@ -4616,12 +4622,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>79</v>
@@ -4630,7 +4636,7 @@
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>80</v>
@@ -4639,12 +4645,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>81</v>
@@ -4653,7 +4659,7 @@
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>82</v>
@@ -4662,12 +4668,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>83</v>
@@ -4676,7 +4682,7 @@
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>84</v>
@@ -4685,12 +4691,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>85</v>
@@ -4699,7 +4705,7 @@
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>86</v>
@@ -4708,12 +4714,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>87</v>
@@ -4722,7 +4728,7 @@
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>88</v>
@@ -4731,12 +4737,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>89</v>
@@ -4745,7 +4751,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>90</v>
@@ -4754,12 +4760,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>91</v>
@@ -4768,7 +4774,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>92</v>
@@ -4777,12 +4783,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>93</v>
@@ -4791,7 +4797,7 @@
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>94</v>
@@ -4800,21 +4806,21 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>96</v>
@@ -4823,12 +4829,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>97</v>
@@ -4837,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>98</v>
@@ -4846,21 +4852,21 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>100</v>
@@ -4869,67 +4875,67 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>131</v>
@@ -4938,58 +4944,58 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>43</v>
@@ -4998,21 +5004,21 @@
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>45</v>
@@ -5021,30 +5027,30 @@
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>135</v>
@@ -5053,12 +5059,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>136</v>
@@ -5067,7 +5073,7 @@
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>137</v>
@@ -5076,12 +5082,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>138</v>
@@ -5090,7 +5096,7 @@
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>139</v>
@@ -5099,12 +5105,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>140</v>
@@ -5113,7 +5119,7 @@
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>141</v>
@@ -5122,44 +5128,44 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>131</v>
@@ -5168,58 +5174,58 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>43</v>
@@ -5228,21 +5234,21 @@
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>45</v>
@@ -5251,30 +5257,30 @@
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>135</v>
@@ -5283,12 +5289,12 @@
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>136</v>
@@ -5297,7 +5303,7 @@
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>137</v>
@@ -5306,12 +5312,12 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>138</v>
@@ -5320,7 +5326,7 @@
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>139</v>
@@ -5329,12 +5335,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>140</v>
@@ -5343,7 +5349,7 @@
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>141</v>
@@ -5352,44 +5358,44 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>151</v>
@@ -5403,7 +5409,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>152</v>
@@ -5412,7 +5418,7 @@
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>153</v>
@@ -5426,7 +5432,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>154</v>
@@ -5435,7 +5441,7 @@
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>155</v>
@@ -5449,7 +5455,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>156</v>
@@ -5458,7 +5464,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>157</v>
@@ -5472,7 +5478,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>158</v>
@@ -5481,7 +5487,7 @@
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>159</v>
@@ -5495,7 +5501,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>160</v>
@@ -5504,10 +5510,10 @@
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5518,19 +5524,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5541,7 +5547,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>163</v>
@@ -5550,10 +5556,10 @@
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5564,19 +5570,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5587,7 +5593,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>166</v>
@@ -5596,7 +5602,7 @@
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>167</v>
@@ -5610,7 +5616,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>168</v>
@@ -5619,7 +5625,7 @@
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>169</v>
@@ -5633,7 +5639,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>170</v>
@@ -5642,7 +5648,7 @@
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>171</v>
@@ -5656,19 +5662,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5679,16 +5685,16 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>151</v>
@@ -5702,7 +5708,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>152</v>
@@ -5711,7 +5717,7 @@
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>153</v>
@@ -5725,7 +5731,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>154</v>
@@ -5734,7 +5740,7 @@
         <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>155</v>
@@ -5748,7 +5754,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>156</v>
@@ -5757,7 +5763,7 @@
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>157</v>
@@ -5771,7 +5777,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>158</v>
@@ -5780,7 +5786,7 @@
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>159</v>
@@ -5794,7 +5800,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>160</v>
@@ -5803,10 +5809,10 @@
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5817,19 +5823,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5840,7 +5846,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>163</v>
@@ -5849,10 +5855,10 @@
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5863,19 +5869,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5886,7 +5892,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>166</v>
@@ -5895,7 +5901,7 @@
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>167</v>
@@ -5909,7 +5915,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>168</v>
@@ -5918,7 +5924,7 @@
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>169</v>
@@ -5932,7 +5938,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>170</v>
@@ -5941,7 +5947,7 @@
         <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>171</v>
@@ -5958,50 +5964,50 @@
         <v>174</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E229" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E230" s="2" t="s">
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>181</v>
@@ -6010,7 +6016,7 @@
         <v>25</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>182</v>
@@ -6019,12 +6025,12 @@
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>183</v>
@@ -6033,7 +6039,7 @@
         <v>25</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>184</v>
@@ -6042,12 +6048,12 @@
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>185</v>
@@ -6056,7 +6062,7 @@
         <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>186</v>
@@ -6065,12 +6071,12 @@
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>187</v>
@@ -6079,7 +6085,7 @@
         <v>25</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>188</v>
@@ -6088,12 +6094,12 @@
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>189</v>
@@ -6102,7 +6108,7 @@
         <v>25</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>190</v>
@@ -6111,21 +6117,21 @@
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>192</v>
@@ -6134,7 +6140,7 @@
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237">
@@ -6142,16 +6148,16 @@
         <v>193</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6162,7 +6168,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>196</v>
@@ -6171,7 +6177,7 @@
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>197</v>
@@ -6185,7 +6191,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>198</v>
@@ -6194,7 +6200,7 @@
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>199</v>
@@ -6208,19 +6214,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -6231,16 +6237,16 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>205</v>
@@ -6254,7 +6260,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>206</v>
@@ -6263,7 +6269,7 @@
         <v>25</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>207</v>
@@ -6272,6 +6278,52 @@
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -700,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H243"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -999,13 +993,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -1019,16 +1013,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -1042,13 +1036,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -1071,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1094,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1108,19 +1102,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -1131,16 +1125,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -1154,16 +1148,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -1177,16 +1171,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -1200,7 +1194,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
@@ -1209,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1223,7 +1217,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -1232,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1246,7 +1240,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -1255,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1269,16 +1263,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1292,7 +1286,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1301,7 +1295,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1315,7 +1309,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1324,7 +1318,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1338,7 +1332,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1347,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1361,7 +1355,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1370,7 +1364,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1384,16 +1378,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1407,7 +1401,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1416,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1430,16 +1424,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1453,7 +1447,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1462,7 +1456,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1476,7 +1470,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1485,7 +1479,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1499,7 +1493,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1508,7 +1502,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1522,7 +1516,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1531,7 +1525,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1545,7 +1539,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1554,7 +1548,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1568,7 +1562,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1577,7 +1571,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1591,7 +1585,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1600,7 +1594,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1614,7 +1608,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1623,7 +1617,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1637,16 +1631,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1660,7 +1654,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1669,7 +1663,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1683,16 +1677,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1706,7 +1700,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1715,7 +1709,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1729,7 +1723,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1738,7 +1732,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1752,7 +1746,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1761,7 +1755,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1775,7 +1769,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1784,7 +1778,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1798,19 +1792,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1821,16 +1815,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -1844,16 +1838,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>54</v>
@@ -1867,16 +1861,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>56</v>
@@ -1890,7 +1884,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>57</v>
@@ -1899,7 +1893,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
@@ -1913,7 +1907,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -1922,7 +1916,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
@@ -1936,7 +1930,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -1945,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>62</v>
@@ -1959,16 +1953,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>64</v>
@@ -1982,7 +1976,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -1991,7 +1985,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>66</v>
@@ -2005,7 +1999,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>67</v>
@@ -2014,7 +2008,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
@@ -2028,7 +2022,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
@@ -2037,7 +2031,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>70</v>
@@ -2051,7 +2045,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -2060,7 +2054,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -2074,16 +2068,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -2097,7 +2091,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
@@ -2106,7 +2100,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -2120,16 +2114,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -2143,7 +2137,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -2152,7 +2146,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -2166,7 +2160,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -2175,7 +2169,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -2189,7 +2183,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
@@ -2198,7 +2192,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -2212,7 +2206,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -2221,7 +2215,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -2235,7 +2229,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
@@ -2244,7 +2238,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -2258,7 +2252,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2267,7 +2261,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2281,7 +2275,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>91</v>
@@ -2290,7 +2284,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>92</v>
@@ -2304,7 +2298,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
@@ -2313,7 +2307,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>94</v>
@@ -2327,16 +2321,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>96</v>
@@ -2350,7 +2344,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>97</v>
@@ -2359,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>98</v>
@@ -2373,16 +2367,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>100</v>
@@ -2396,7 +2390,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>101</v>
@@ -2405,7 +2399,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>102</v>
@@ -2419,7 +2413,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
@@ -2428,7 +2422,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>104</v>
@@ -2442,7 +2436,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>105</v>
@@ -2451,7 +2445,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>106</v>
@@ -2465,7 +2459,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>107</v>
@@ -2474,7 +2468,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>108</v>
@@ -2491,7 +2485,7 @@
         <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
@@ -2500,27 +2494,27 @@
         <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>52</v>
@@ -2529,21 +2523,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>54</v>
@@ -2552,21 +2546,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>56</v>
@@ -2575,12 +2569,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>57</v>
@@ -2589,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>58</v>
@@ -2598,12 +2592,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -2612,7 +2606,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>60</v>
@@ -2621,12 +2615,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>61</v>
@@ -2635,7 +2629,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
@@ -2644,21 +2638,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>64</v>
@@ -2667,12 +2661,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>65</v>
@@ -2681,7 +2675,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>66</v>
@@ -2690,12 +2684,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>67</v>
@@ -2704,7 +2698,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -2713,12 +2707,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>69</v>
@@ -2727,7 +2721,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>70</v>
@@ -2736,12 +2730,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
@@ -2750,7 +2744,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>72</v>
@@ -2759,12 +2753,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>73</v>
@@ -2773,7 +2767,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>74</v>
@@ -2782,12 +2776,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -2796,7 +2790,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>76</v>
@@ -2805,12 +2799,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -2819,7 +2813,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>78</v>
@@ -2828,12 +2822,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2842,7 +2836,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>80</v>
@@ -2851,12 +2845,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>81</v>
@@ -2865,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>82</v>
@@ -2874,12 +2868,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>83</v>
@@ -2888,7 +2882,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>84</v>
@@ -2897,12 +2891,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>85</v>
@@ -2911,7 +2905,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>86</v>
@@ -2920,12 +2914,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>87</v>
@@ -2934,7 +2928,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>88</v>
@@ -2943,12 +2937,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>89</v>
@@ -2957,7 +2951,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>90</v>
@@ -2966,12 +2960,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>91</v>
@@ -2980,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>92</v>
@@ -2989,12 +2983,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>93</v>
@@ -3003,7 +2997,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>94</v>
@@ -3012,21 +3006,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>96</v>
@@ -3035,12 +3029,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -3049,7 +3043,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>98</v>
@@ -3058,21 +3052,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>100</v>
@@ -3081,44 +3075,44 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>52</v>
@@ -3127,21 +3121,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>54</v>
@@ -3150,21 +3144,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>56</v>
@@ -3173,12 +3167,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>57</v>
@@ -3187,7 +3181,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>58</v>
@@ -3196,12 +3190,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>59</v>
@@ -3210,7 +3204,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>60</v>
@@ -3219,12 +3213,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>61</v>
@@ -3233,7 +3227,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>62</v>
@@ -3242,21 +3236,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>64</v>
@@ -3265,12 +3259,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>65</v>
@@ -3279,7 +3273,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>66</v>
@@ -3288,12 +3282,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>67</v>
@@ -3302,7 +3296,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>68</v>
@@ -3311,12 +3305,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>69</v>
@@ -3325,7 +3319,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>70</v>
@@ -3334,12 +3328,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>71</v>
@@ -3348,7 +3342,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>72</v>
@@ -3357,12 +3351,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>73</v>
@@ -3371,7 +3365,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>74</v>
@@ -3380,12 +3374,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>75</v>
@@ -3394,7 +3388,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>76</v>
@@ -3403,12 +3397,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>77</v>
@@ -3417,7 +3411,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>78</v>
@@ -3426,12 +3420,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>79</v>
@@ -3440,7 +3434,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>80</v>
@@ -3449,12 +3443,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>81</v>
@@ -3463,7 +3457,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>82</v>
@@ -3472,12 +3466,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
@@ -3486,7 +3480,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>84</v>
@@ -3495,12 +3489,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>85</v>
@@ -3509,7 +3503,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>86</v>
@@ -3518,12 +3512,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>87</v>
@@ -3532,7 +3526,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>88</v>
@@ -3541,12 +3535,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>89</v>
@@ -3555,7 +3549,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>90</v>
@@ -3564,12 +3558,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>91</v>
@@ -3578,7 +3572,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>92</v>
@@ -3587,12 +3581,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>93</v>
@@ -3601,7 +3595,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>94</v>
@@ -3610,21 +3604,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>96</v>
@@ -3633,12 +3627,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>97</v>
@@ -3647,7 +3641,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>98</v>
@@ -3656,21 +3650,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>100</v>
@@ -3679,44 +3673,44 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>52</v>
@@ -3725,21 +3719,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>54</v>
@@ -3748,21 +3742,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>56</v>
@@ -3771,12 +3765,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>57</v>
@@ -3785,7 +3779,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>58</v>
@@ -3794,12 +3788,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>59</v>
@@ -3808,7 +3802,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>60</v>
@@ -3817,12 +3811,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>61</v>
@@ -3831,7 +3825,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>62</v>
@@ -3840,21 +3834,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>64</v>
@@ -3863,12 +3857,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>65</v>
@@ -3877,7 +3871,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>66</v>
@@ -3886,12 +3880,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>67</v>
@@ -3900,7 +3894,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>68</v>
@@ -3909,12 +3903,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>69</v>
@@ -3923,7 +3917,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>70</v>
@@ -3932,12 +3926,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>71</v>
@@ -3946,7 +3940,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>72</v>
@@ -3955,12 +3949,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>73</v>
@@ -3969,7 +3963,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>74</v>
@@ -3978,12 +3972,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>75</v>
@@ -3992,7 +3986,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>76</v>
@@ -4001,12 +3995,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>77</v>
@@ -4015,7 +4009,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>78</v>
@@ -4024,12 +4018,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>79</v>
@@ -4038,7 +4032,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>80</v>
@@ -4047,12 +4041,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>81</v>
@@ -4061,7 +4055,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>82</v>
@@ -4070,12 +4064,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>83</v>
@@ -4084,7 +4078,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>84</v>
@@ -4093,12 +4087,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
@@ -4107,7 +4101,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>86</v>
@@ -4116,12 +4110,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>87</v>
@@ -4130,7 +4124,7 @@
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>88</v>
@@ -4139,12 +4133,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>89</v>
@@ -4153,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>90</v>
@@ -4162,12 +4156,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>91</v>
@@ -4176,7 +4170,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>92</v>
@@ -4185,12 +4179,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>93</v>
@@ -4199,7 +4193,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>94</v>
@@ -4208,21 +4202,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>96</v>
@@ -4231,12 +4225,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>97</v>
@@ -4245,7 +4239,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>98</v>
@@ -4254,21 +4248,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>100</v>
@@ -4277,44 +4271,44 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>52</v>
@@ -4323,21 +4317,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>54</v>
@@ -4346,21 +4340,21 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>56</v>
@@ -4369,12 +4363,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>57</v>
@@ -4383,7 +4377,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>58</v>
@@ -4392,12 +4386,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>59</v>
@@ -4406,7 +4400,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>60</v>
@@ -4415,12 +4409,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>61</v>
@@ -4429,7 +4423,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>62</v>
@@ -4438,21 +4432,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>64</v>
@@ -4461,12 +4455,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>65</v>
@@ -4475,7 +4469,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>66</v>
@@ -4484,12 +4478,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>67</v>
@@ -4498,7 +4492,7 @@
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>68</v>
@@ -4507,12 +4501,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>69</v>
@@ -4521,7 +4515,7 @@
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>70</v>
@@ -4530,12 +4524,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>71</v>
@@ -4544,7 +4538,7 @@
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>72</v>
@@ -4553,12 +4547,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>73</v>
@@ -4567,7 +4561,7 @@
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>74</v>
@@ -4576,12 +4570,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>75</v>
@@ -4590,7 +4584,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>76</v>
@@ -4599,12 +4593,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>77</v>
@@ -4613,7 +4607,7 @@
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>78</v>
@@ -4622,12 +4616,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>79</v>
@@ -4636,7 +4630,7 @@
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>80</v>
@@ -4645,12 +4639,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>81</v>
@@ -4659,7 +4653,7 @@
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>82</v>
@@ -4668,12 +4662,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>83</v>
@@ -4682,7 +4676,7 @@
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>84</v>
@@ -4691,12 +4685,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>85</v>
@@ -4705,7 +4699,7 @@
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>86</v>
@@ -4714,12 +4708,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>87</v>
@@ -4728,7 +4722,7 @@
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>88</v>
@@ -4737,12 +4731,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>89</v>
@@ -4751,7 +4745,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>90</v>
@@ -4760,12 +4754,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>91</v>
@@ -4774,7 +4768,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>92</v>
@@ -4783,12 +4777,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>93</v>
@@ -4797,7 +4791,7 @@
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>94</v>
@@ -4806,21 +4800,21 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>96</v>
@@ -4829,12 +4823,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>97</v>
@@ -4843,7 +4837,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>98</v>
@@ -4852,21 +4846,21 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>100</v>
@@ -4875,67 +4869,67 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>131</v>
@@ -4944,58 +4938,58 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>43</v>
@@ -5004,21 +4998,21 @@
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>45</v>
@@ -5027,30 +5021,30 @@
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>135</v>
@@ -5059,12 +5053,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>136</v>
@@ -5073,7 +5067,7 @@
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>137</v>
@@ -5082,12 +5076,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>138</v>
@@ -5096,7 +5090,7 @@
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>139</v>
@@ -5105,12 +5099,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>140</v>
@@ -5119,7 +5113,7 @@
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>141</v>
@@ -5128,44 +5122,44 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>131</v>
@@ -5174,58 +5168,58 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>43</v>
@@ -5234,21 +5228,21 @@
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>45</v>
@@ -5257,30 +5251,30 @@
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>135</v>
@@ -5289,12 +5283,12 @@
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>136</v>
@@ -5303,7 +5297,7 @@
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>137</v>
@@ -5312,12 +5306,12 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>138</v>
@@ -5326,7 +5320,7 @@
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>139</v>
@@ -5335,12 +5329,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>140</v>
@@ -5349,7 +5343,7 @@
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>141</v>
@@ -5358,44 +5352,44 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>151</v>
@@ -5409,7 +5403,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>152</v>
@@ -5418,7 +5412,7 @@
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>153</v>
@@ -5432,7 +5426,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>154</v>
@@ -5441,7 +5435,7 @@
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>155</v>
@@ -5455,7 +5449,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>156</v>
@@ -5464,7 +5458,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>157</v>
@@ -5478,7 +5472,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>158</v>
@@ -5487,7 +5481,7 @@
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>159</v>
@@ -5501,7 +5495,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>160</v>
@@ -5510,10 +5504,10 @@
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5524,19 +5518,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="E210" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5547,7 +5541,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>163</v>
@@ -5556,10 +5550,10 @@
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5570,19 +5564,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="E212" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5593,7 +5587,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>166</v>
@@ -5602,7 +5596,7 @@
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>167</v>
@@ -5616,7 +5610,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>168</v>
@@ -5625,7 +5619,7 @@
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>169</v>
@@ -5639,7 +5633,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>170</v>
@@ -5648,7 +5642,7 @@
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>171</v>
@@ -5662,19 +5656,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5685,16 +5679,16 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>151</v>
@@ -5708,7 +5702,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>152</v>
@@ -5717,7 +5711,7 @@
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>153</v>
@@ -5731,7 +5725,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>154</v>
@@ -5740,7 +5734,7 @@
         <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>155</v>
@@ -5754,7 +5748,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>156</v>
@@ -5763,7 +5757,7 @@
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>157</v>
@@ -5777,7 +5771,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>158</v>
@@ -5786,7 +5780,7 @@
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>159</v>
@@ -5800,7 +5794,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>160</v>
@@ -5809,10 +5803,10 @@
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5823,19 +5817,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5846,7 +5840,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>163</v>
@@ -5855,10 +5849,10 @@
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5869,19 +5863,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5892,7 +5886,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>166</v>
@@ -5901,7 +5895,7 @@
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>167</v>
@@ -5915,7 +5909,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>168</v>
@@ -5924,7 +5918,7 @@
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>169</v>
@@ -5938,7 +5932,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>170</v>
@@ -5947,7 +5941,7 @@
         <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>171</v>
@@ -5964,50 +5958,50 @@
         <v>174</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D230" s="2" t="s">
+      <c r="E230" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>181</v>
@@ -6016,7 +6010,7 @@
         <v>25</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>182</v>
@@ -6025,12 +6019,12 @@
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>183</v>
@@ -6039,7 +6033,7 @@
         <v>25</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>184</v>
@@ -6048,12 +6042,12 @@
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>185</v>
@@ -6062,7 +6056,7 @@
         <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>186</v>
@@ -6071,12 +6065,12 @@
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>187</v>
@@ -6085,7 +6079,7 @@
         <v>25</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>188</v>
@@ -6094,12 +6088,12 @@
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>189</v>
@@ -6108,7 +6102,7 @@
         <v>25</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>190</v>
@@ -6117,21 +6111,21 @@
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>192</v>
@@ -6140,7 +6134,7 @@
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237">
@@ -6148,16 +6142,16 @@
         <v>193</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6168,7 +6162,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>196</v>
@@ -6177,7 +6171,7 @@
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>197</v>
@@ -6191,7 +6185,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>198</v>
@@ -6200,7 +6194,7 @@
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>199</v>
@@ -6214,19 +6208,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -6237,16 +6231,16 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>205</v>
@@ -6260,7 +6254,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>206</v>
@@ -6269,7 +6263,7 @@
         <v>25</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>207</v>
@@ -6283,47 +6277,24 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E243" s="2" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -694,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H243"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -993,13 +999,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -1013,16 +1019,16 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -1036,13 +1042,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -1065,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1088,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1102,19 +1108,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -1125,16 +1131,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
@@ -1148,16 +1154,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -1171,16 +1177,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -1194,7 +1200,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
@@ -1203,7 +1209,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1217,7 +1223,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
@@ -1226,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1240,7 +1246,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -1249,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1263,16 +1269,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1286,7 +1292,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
@@ -1295,7 +1301,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1309,7 +1315,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1318,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1332,7 +1338,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1341,7 +1347,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1355,7 +1361,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
@@ -1364,7 +1370,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1378,16 +1384,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1401,7 +1407,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1410,7 +1416,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1424,16 +1430,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1447,7 +1453,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1456,7 +1462,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1470,7 +1476,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1479,7 +1485,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1493,7 +1499,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1502,7 +1508,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1516,7 +1522,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -1525,7 +1531,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1539,7 +1545,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1548,7 +1554,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1571,7 +1577,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1585,7 +1591,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1594,7 +1600,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1608,7 +1614,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1617,7 +1623,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1631,16 +1637,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1654,7 +1660,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1663,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1677,16 +1683,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1709,7 +1715,7 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1723,7 +1729,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1732,7 +1738,7 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1755,7 +1761,7 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1769,7 +1775,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1778,7 +1784,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1815,16 +1821,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -1838,16 +1844,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>54</v>
@@ -1861,16 +1867,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>56</v>
@@ -1884,7 +1890,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>57</v>
@@ -1893,7 +1899,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>58</v>
@@ -1907,7 +1913,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>59</v>
@@ -1916,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
@@ -1930,7 +1936,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -1939,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>62</v>
@@ -1953,16 +1959,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>64</v>
@@ -1976,7 +1982,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -1985,7 +1991,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>66</v>
@@ -1999,7 +2005,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>67</v>
@@ -2008,7 +2014,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>68</v>
@@ -2022,7 +2028,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
@@ -2031,7 +2037,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>70</v>
@@ -2045,7 +2051,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -2054,7 +2060,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>72</v>
@@ -2068,16 +2074,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>74</v>
@@ -2091,7 +2097,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>75</v>
@@ -2100,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>76</v>
@@ -2114,16 +2120,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>78</v>
@@ -2137,7 +2143,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>79</v>
@@ -2146,7 +2152,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>80</v>
@@ -2160,7 +2166,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>81</v>
@@ -2169,7 +2175,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>82</v>
@@ -2183,7 +2189,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
@@ -2192,7 +2198,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>84</v>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -2215,7 +2221,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>86</v>
@@ -2229,7 +2235,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>87</v>
@@ -2238,7 +2244,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>88</v>
@@ -2252,7 +2258,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>89</v>
@@ -2261,7 +2267,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>90</v>
@@ -2275,7 +2281,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>91</v>
@@ -2284,7 +2290,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>92</v>
@@ -2298,7 +2304,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
@@ -2307,7 +2313,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>94</v>
@@ -2321,16 +2327,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>96</v>
@@ -2344,7 +2350,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>97</v>
@@ -2353,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>98</v>
@@ -2367,16 +2373,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>100</v>
@@ -2390,7 +2396,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>101</v>
@@ -2399,7 +2405,7 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>102</v>
@@ -2413,7 +2419,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>103</v>
@@ -2422,7 +2428,7 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>104</v>
@@ -2436,7 +2442,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>105</v>
@@ -2445,7 +2451,7 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>106</v>
@@ -2459,7 +2465,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>107</v>
@@ -2468,7 +2474,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>108</v>
@@ -2485,7 +2491,7 @@
         <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
@@ -2494,27 +2500,27 @@
         <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>52</v>
@@ -2523,21 +2529,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>54</v>
@@ -2546,21 +2552,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>56</v>
@@ -2569,12 +2575,12 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>57</v>
@@ -2583,7 +2589,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>58</v>
@@ -2592,12 +2598,12 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>59</v>
@@ -2606,7 +2612,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>60</v>
@@ -2615,12 +2621,12 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>61</v>
@@ -2629,7 +2635,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
@@ -2638,21 +2644,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>64</v>
@@ -2661,12 +2667,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>65</v>
@@ -2675,7 +2681,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>66</v>
@@ -2684,12 +2690,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>67</v>
@@ -2698,7 +2704,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>68</v>
@@ -2707,12 +2713,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>69</v>
@@ -2721,7 +2727,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>70</v>
@@ -2730,12 +2736,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
@@ -2744,7 +2750,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>72</v>
@@ -2753,12 +2759,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>73</v>
@@ -2767,7 +2773,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>74</v>
@@ -2776,12 +2782,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>75</v>
@@ -2790,7 +2796,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>76</v>
@@ -2799,12 +2805,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>77</v>
@@ -2813,7 +2819,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>78</v>
@@ -2822,12 +2828,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2836,7 +2842,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>80</v>
@@ -2845,12 +2851,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>81</v>
@@ -2859,7 +2865,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>82</v>
@@ -2868,12 +2874,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>83</v>
@@ -2882,7 +2888,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>84</v>
@@ -2891,12 +2897,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>85</v>
@@ -2905,7 +2911,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>86</v>
@@ -2914,12 +2920,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>87</v>
@@ -2928,7 +2934,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>88</v>
@@ -2937,12 +2943,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>89</v>
@@ -2951,7 +2957,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>90</v>
@@ -2960,12 +2966,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>91</v>
@@ -2974,7 +2980,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>92</v>
@@ -2983,12 +2989,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>93</v>
@@ -2997,7 +3003,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>94</v>
@@ -3006,21 +3012,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>96</v>
@@ -3029,12 +3035,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>97</v>
@@ -3043,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>98</v>
@@ -3052,21 +3058,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>100</v>
@@ -3075,44 +3081,44 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>52</v>
@@ -3121,21 +3127,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>54</v>
@@ -3144,21 +3150,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>56</v>
@@ -3167,12 +3173,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>57</v>
@@ -3181,7 +3187,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>58</v>
@@ -3190,12 +3196,12 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>59</v>
@@ -3204,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>60</v>
@@ -3213,12 +3219,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>61</v>
@@ -3227,7 +3233,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>62</v>
@@ -3236,21 +3242,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>64</v>
@@ -3259,12 +3265,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>65</v>
@@ -3273,7 +3279,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>66</v>
@@ -3282,12 +3288,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>67</v>
@@ -3296,7 +3302,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>68</v>
@@ -3305,12 +3311,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>69</v>
@@ -3319,7 +3325,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>70</v>
@@ -3328,12 +3334,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>71</v>
@@ -3342,7 +3348,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>72</v>
@@ -3351,12 +3357,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>73</v>
@@ -3365,7 +3371,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>74</v>
@@ -3374,12 +3380,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>75</v>
@@ -3388,7 +3394,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>76</v>
@@ -3397,12 +3403,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>77</v>
@@ -3411,7 +3417,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>78</v>
@@ -3420,12 +3426,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>79</v>
@@ -3434,7 +3440,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>80</v>
@@ -3443,12 +3449,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>81</v>
@@ -3457,7 +3463,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>82</v>
@@ -3466,12 +3472,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
@@ -3480,7 +3486,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>84</v>
@@ -3489,12 +3495,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>85</v>
@@ -3503,7 +3509,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>86</v>
@@ -3512,12 +3518,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>87</v>
@@ -3526,7 +3532,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>88</v>
@@ -3535,12 +3541,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>89</v>
@@ -3549,7 +3555,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>90</v>
@@ -3558,12 +3564,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>91</v>
@@ -3572,7 +3578,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>92</v>
@@ -3581,12 +3587,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>93</v>
@@ -3595,7 +3601,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>94</v>
@@ -3604,21 +3610,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>96</v>
@@ -3627,12 +3633,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>97</v>
@@ -3641,7 +3647,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>98</v>
@@ -3650,21 +3656,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>100</v>
@@ -3673,44 +3679,44 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>52</v>
@@ -3719,21 +3725,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>54</v>
@@ -3742,21 +3748,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>56</v>
@@ -3765,12 +3771,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>57</v>
@@ -3779,7 +3785,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>58</v>
@@ -3788,12 +3794,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>59</v>
@@ -3802,7 +3808,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>60</v>
@@ -3811,12 +3817,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>61</v>
@@ -3825,7 +3831,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>62</v>
@@ -3834,21 +3840,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>64</v>
@@ -3857,12 +3863,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>65</v>
@@ -3871,7 +3877,7 @@
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>66</v>
@@ -3880,12 +3886,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>67</v>
@@ -3894,7 +3900,7 @@
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>68</v>
@@ -3903,12 +3909,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>69</v>
@@ -3917,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>70</v>
@@ -3926,12 +3932,12 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>71</v>
@@ -3940,7 +3946,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>72</v>
@@ -3949,12 +3955,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>73</v>
@@ -3963,7 +3969,7 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>74</v>
@@ -3972,12 +3978,12 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>75</v>
@@ -3986,7 +3992,7 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>76</v>
@@ -3995,12 +4001,12 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>77</v>
@@ -4009,7 +4015,7 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>78</v>
@@ -4018,12 +4024,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>79</v>
@@ -4032,7 +4038,7 @@
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>80</v>
@@ -4041,12 +4047,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>81</v>
@@ -4055,7 +4061,7 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>82</v>
@@ -4064,12 +4070,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>83</v>
@@ -4078,7 +4084,7 @@
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>84</v>
@@ -4087,12 +4093,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>85</v>
@@ -4101,7 +4107,7 @@
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>86</v>
@@ -4110,12 +4116,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>87</v>
@@ -4124,7 +4130,7 @@
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>88</v>
@@ -4133,12 +4139,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>89</v>
@@ -4147,7 +4153,7 @@
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>90</v>
@@ -4156,12 +4162,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>91</v>
@@ -4170,7 +4176,7 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>92</v>
@@ -4179,12 +4185,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>93</v>
@@ -4193,7 +4199,7 @@
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>94</v>
@@ -4202,21 +4208,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>96</v>
@@ -4225,12 +4231,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>97</v>
@@ -4239,7 +4245,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>98</v>
@@ -4248,21 +4254,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>100</v>
@@ -4271,44 +4277,44 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>52</v>
@@ -4317,21 +4323,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>54</v>
@@ -4340,21 +4346,21 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>56</v>
@@ -4363,12 +4369,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>57</v>
@@ -4377,7 +4383,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>58</v>
@@ -4386,12 +4392,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>59</v>
@@ -4400,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>60</v>
@@ -4409,12 +4415,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>61</v>
@@ -4423,7 +4429,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>62</v>
@@ -4432,21 +4438,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>64</v>
@@ -4455,12 +4461,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>65</v>
@@ -4469,7 +4475,7 @@
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>66</v>
@@ -4478,12 +4484,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>67</v>
@@ -4492,7 +4498,7 @@
         <v>25</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>68</v>
@@ -4501,12 +4507,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>69</v>
@@ -4515,7 +4521,7 @@
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>70</v>
@@ -4524,12 +4530,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>71</v>
@@ -4538,7 +4544,7 @@
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>72</v>
@@ -4547,12 +4553,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>73</v>
@@ -4561,7 +4567,7 @@
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>74</v>
@@ -4570,12 +4576,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>75</v>
@@ -4584,7 +4590,7 @@
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>76</v>
@@ -4593,12 +4599,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>77</v>
@@ -4607,7 +4613,7 @@
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>78</v>
@@ -4616,12 +4622,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>79</v>
@@ -4630,7 +4636,7 @@
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>80</v>
@@ -4639,12 +4645,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>81</v>
@@ -4653,7 +4659,7 @@
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>82</v>
@@ -4662,12 +4668,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>83</v>
@@ -4676,7 +4682,7 @@
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>84</v>
@@ -4685,12 +4691,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>85</v>
@@ -4699,7 +4705,7 @@
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>86</v>
@@ -4708,12 +4714,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>87</v>
@@ -4722,7 +4728,7 @@
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>88</v>
@@ -4731,12 +4737,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>89</v>
@@ -4745,7 +4751,7 @@
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>90</v>
@@ -4754,12 +4760,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>91</v>
@@ -4768,7 +4774,7 @@
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>92</v>
@@ -4777,12 +4783,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>93</v>
@@ -4791,7 +4797,7 @@
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>94</v>
@@ -4800,21 +4806,21 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>96</v>
@@ -4823,12 +4829,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>97</v>
@@ -4837,7 +4843,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>98</v>
@@ -4846,21 +4852,21 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>100</v>
@@ -4869,67 +4875,67 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="E182" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>131</v>
@@ -4938,58 +4944,58 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>43</v>
@@ -4998,21 +5004,21 @@
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>45</v>
@@ -5021,30 +5027,30 @@
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>135</v>
@@ -5053,12 +5059,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>136</v>
@@ -5067,7 +5073,7 @@
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>137</v>
@@ -5076,12 +5082,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>138</v>
@@ -5090,7 +5096,7 @@
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>139</v>
@@ -5099,12 +5105,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>140</v>
@@ -5113,7 +5119,7 @@
         <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>141</v>
@@ -5122,44 +5128,44 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C193" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>131</v>
@@ -5168,58 +5174,58 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>43</v>
@@ -5228,21 +5234,21 @@
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>45</v>
@@ -5251,30 +5257,30 @@
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>135</v>
@@ -5283,12 +5289,12 @@
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>136</v>
@@ -5297,7 +5303,7 @@
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>137</v>
@@ -5306,12 +5312,12 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>138</v>
@@ -5320,7 +5326,7 @@
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>139</v>
@@ -5329,12 +5335,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>140</v>
@@ -5343,7 +5349,7 @@
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>141</v>
@@ -5352,44 +5358,44 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>151</v>
@@ -5403,7 +5409,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>152</v>
@@ -5412,7 +5418,7 @@
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>153</v>
@@ -5426,7 +5432,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>154</v>
@@ -5435,7 +5441,7 @@
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>155</v>
@@ -5449,7 +5455,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>156</v>
@@ -5458,7 +5464,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>157</v>
@@ -5472,7 +5478,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>158</v>
@@ -5481,7 +5487,7 @@
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>159</v>
@@ -5495,7 +5501,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>160</v>
@@ -5504,10 +5510,10 @@
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5518,19 +5524,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5541,7 +5547,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>163</v>
@@ -5550,10 +5556,10 @@
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5564,19 +5570,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5587,7 +5593,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>166</v>
@@ -5596,7 +5602,7 @@
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>167</v>
@@ -5610,7 +5616,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>168</v>
@@ -5619,7 +5625,7 @@
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>169</v>
@@ -5633,7 +5639,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>170</v>
@@ -5642,7 +5648,7 @@
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>171</v>
@@ -5656,19 +5662,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5679,16 +5685,16 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>151</v>
@@ -5702,7 +5708,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>152</v>
@@ -5711,7 +5717,7 @@
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>153</v>
@@ -5725,7 +5731,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>154</v>
@@ -5734,7 +5740,7 @@
         <v>25</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>155</v>
@@ -5748,7 +5754,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>156</v>
@@ -5757,7 +5763,7 @@
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>157</v>
@@ -5771,7 +5777,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>158</v>
@@ -5780,7 +5786,7 @@
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>159</v>
@@ -5794,7 +5800,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>160</v>
@@ -5803,10 +5809,10 @@
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5817,19 +5823,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5840,7 +5846,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>163</v>
@@ -5849,10 +5855,10 @@
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5863,19 +5869,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5886,7 +5892,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>166</v>
@@ -5895,7 +5901,7 @@
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>167</v>
@@ -5909,7 +5915,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>168</v>
@@ -5918,7 +5924,7 @@
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>169</v>
@@ -5932,7 +5938,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>170</v>
@@ -5941,7 +5947,7 @@
         <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>171</v>
@@ -5958,50 +5964,50 @@
         <v>174</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="E229" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E230" s="2" t="s">
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>181</v>
@@ -6010,7 +6016,7 @@
         <v>25</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>182</v>
@@ -6019,12 +6025,12 @@
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>183</v>
@@ -6033,7 +6039,7 @@
         <v>25</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>184</v>
@@ -6042,12 +6048,12 @@
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>185</v>
@@ -6056,7 +6062,7 @@
         <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>186</v>
@@ -6065,12 +6071,12 @@
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>187</v>
@@ -6079,7 +6085,7 @@
         <v>25</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>188</v>
@@ -6088,12 +6094,12 @@
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>189</v>
@@ -6102,7 +6108,7 @@
         <v>25</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>190</v>
@@ -6111,21 +6117,21 @@
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>192</v>
@@ -6134,7 +6140,7 @@
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237">
@@ -6142,16 +6148,16 @@
         <v>193</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6162,7 +6168,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>196</v>
@@ -6171,7 +6177,7 @@
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>197</v>
@@ -6185,7 +6191,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>198</v>
@@ -6194,7 +6200,7 @@
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>199</v>
@@ -6208,19 +6214,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -6231,16 +6237,16 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>205</v>
@@ -6254,7 +6260,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>206</v>
@@ -6263,7 +6269,7 @@
         <v>25</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>207</v>
@@ -6277,24 +6283,47 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E243" s="2" t="s">
+      <c r="C244" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="214">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -700,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1229,7 +1241,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>51</v>
@@ -1252,7 +1264,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>51</v>
@@ -1298,7 +1310,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>51</v>
@@ -1321,7 +1333,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>51</v>
@@ -1413,7 +1425,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>51</v>
@@ -1436,7 +1448,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>51</v>
@@ -1459,7 +1471,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>51</v>
@@ -1482,7 +1494,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>51</v>
@@ -1666,7 +1678,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>51</v>
@@ -1689,7 +1701,7 @@
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>51</v>
@@ -1712,7 +1724,7 @@
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>51</v>
@@ -1735,7 +1747,7 @@
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>51</v>
@@ -1821,19 +1833,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1856,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1879,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1902,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1913,19 +1925,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1948,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1971,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1982,19 +1994,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2017,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2040,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2063,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2074,19 +2086,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2109,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2132,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2155,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2178,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2201,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2224,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2247,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2270,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2293,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2304,19 +2316,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2339,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2362,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2385,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2408,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2431,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2454,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2465,19 +2477,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2500,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2511,2411 +2523,2411 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4926,19 +4938,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4949,19 +4961,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4972,19 +4984,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4995,19 +5007,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5018,19 +5030,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5041,19 +5053,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5064,19 +5076,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5087,19 +5099,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5110,19 +5122,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5133,19 +5145,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5156,177 +5168,177 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>139</v>
@@ -5335,12 +5347,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>140</v>
@@ -5349,7 +5361,7 @@
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>141</v>
@@ -5358,12 +5370,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>142</v>
@@ -5372,7 +5384,7 @@
         <v>25</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>143</v>
@@ -5381,53 +5393,53 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="206">
@@ -5435,22 +5447,22 @@
         <v>148</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="207">
@@ -5458,22 +5470,22 @@
         <v>148</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="208">
@@ -5481,22 +5493,22 @@
         <v>148</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="209">
@@ -5504,22 +5516,22 @@
         <v>148</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="210">
@@ -5527,22 +5539,22 @@
         <v>148</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D210" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="211">
@@ -5550,22 +5562,22 @@
         <v>148</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="212">
@@ -5573,22 +5585,22 @@
         <v>148</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="213">
@@ -5596,22 +5608,22 @@
         <v>148</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D213" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="214">
@@ -5619,22 +5631,22 @@
         <v>148</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="215">
@@ -5642,39 +5654,39 @@
         <v>148</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D215" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5685,19 +5697,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
@@ -5708,19 +5720,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -5731,19 +5743,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E219" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -5754,19 +5766,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
@@ -5777,19 +5789,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
@@ -5800,19 +5812,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
@@ -5823,19 +5835,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5846,19 +5858,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5869,19 +5881,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5892,19 +5904,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -5915,19 +5927,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C227" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D227" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
@@ -5938,19 +5950,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
@@ -5961,19 +5973,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
@@ -5984,180 +5996,180 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6168,19 +6180,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -6191,19 +6203,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
@@ -6214,19 +6226,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -6237,19 +6249,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
@@ -6260,70 +6272,346 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="C251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E244" s="2" t="s">
+      <c r="C256" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E256" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="216">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -712,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -774,63 +780,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -839,90 +845,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -931,21 +937,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -954,12 +960,12 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
@@ -968,7 +974,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -977,21 +983,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -1000,21 +1006,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -1023,12 +1029,12 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
@@ -1037,53 +1043,53 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -1092,21 +1098,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1115,21 +1121,21 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -1138,44 +1144,44 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -1184,21 +1190,21 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -1207,12 +1213,12 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
@@ -1221,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1230,21 +1236,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1253,21 +1259,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1276,12 +1282,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -1290,7 +1296,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1299,21 +1305,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1322,21 +1328,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1345,21 +1351,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1368,21 +1374,21 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1391,21 +1397,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1414,21 +1420,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1437,21 +1443,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1460,12 +1466,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1474,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1483,21 +1489,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1506,21 +1512,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1529,21 +1535,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1552,21 +1558,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1575,21 +1581,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1598,21 +1604,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1621,21 +1627,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1644,21 +1650,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1667,21 +1673,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1690,21 +1696,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1713,12 +1719,12 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1727,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1736,21 +1742,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1759,21 +1765,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1782,21 +1788,21 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1805,21 +1811,21 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1828,21 +1834,21 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1851,21 +1857,21 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1874,44 +1880,44 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>54</v>
@@ -1920,21 +1926,21 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>56</v>
@@ -1943,12 +1949,12 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>57</v>
@@ -1957,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
@@ -1966,21 +1972,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>60</v>
@@ -1989,21 +1995,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>62</v>
@@ -2012,12 +2018,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
@@ -2026,7 +2032,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>64</v>
@@ -2035,21 +2041,21 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>66</v>
@@ -2058,21 +2064,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>68</v>
@@ -2081,21 +2087,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>70</v>
@@ -2104,21 +2110,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>72</v>
@@ -2127,21 +2133,21 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>74</v>
@@ -2150,21 +2156,21 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>76</v>
@@ -2173,21 +2179,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>78</v>
@@ -2196,12 +2202,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>79</v>
@@ -2210,7 +2216,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>80</v>
@@ -2219,21 +2225,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>82</v>
@@ -2242,21 +2248,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>84</v>
@@ -2265,21 +2271,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>86</v>
@@ -2288,21 +2294,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>88</v>
@@ -2311,21 +2317,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>90</v>
@@ -2334,21 +2340,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>92</v>
@@ -2357,21 +2363,21 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>94</v>
@@ -2380,21 +2386,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>96</v>
@@ -2403,21 +2409,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>98</v>
@@ -2426,21 +2432,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>100</v>
@@ -2449,12 +2455,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>101</v>
@@ -2463,7 +2469,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>102</v>
@@ -2472,21 +2478,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>104</v>
@@ -2495,21 +2501,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>106</v>
@@ -2518,21 +2524,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>108</v>
@@ -2541,21 +2547,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>110</v>
@@ -2564,21 +2570,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>112</v>
@@ -2587,21 +2593,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>114</v>
@@ -2610,7 +2616,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -2618,36 +2624,36 @@
         <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>54</v>
@@ -2656,21 +2662,21 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>56</v>
@@ -2679,12 +2685,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>57</v>
@@ -2693,7 +2699,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>58</v>
@@ -2702,21 +2708,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>60</v>
@@ -2725,21 +2731,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>62</v>
@@ -2748,12 +2754,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>63</v>
@@ -2762,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>64</v>
@@ -2771,21 +2777,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>66</v>
@@ -2794,21 +2800,21 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>68</v>
@@ -2817,21 +2823,21 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>70</v>
@@ -2840,21 +2846,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>72</v>
@@ -2863,21 +2869,21 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>74</v>
@@ -2886,21 +2892,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>76</v>
@@ -2909,21 +2915,21 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>78</v>
@@ -2932,21 +2938,21 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>80</v>
@@ -2955,21 +2961,21 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>82</v>
@@ -2978,21 +2984,21 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>84</v>
@@ -3001,21 +3007,21 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>86</v>
@@ -3024,21 +3030,21 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>88</v>
@@ -3047,21 +3053,21 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>90</v>
@@ -3070,21 +3076,21 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>92</v>
@@ -3093,21 +3099,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>94</v>
@@ -3116,21 +3122,21 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>96</v>
@@ -3139,21 +3145,21 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>98</v>
@@ -3162,21 +3168,21 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>100</v>
@@ -3185,12 +3191,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>101</v>
@@ -3199,7 +3205,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>102</v>
@@ -3208,21 +3214,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>104</v>
@@ -3231,21 +3237,21 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>106</v>
@@ -3254,44 +3260,44 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>54</v>
@@ -3300,21 +3306,21 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>56</v>
@@ -3323,12 +3329,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>57</v>
@@ -3337,7 +3343,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>58</v>
@@ -3346,21 +3352,21 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>60</v>
@@ -3369,21 +3375,21 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>62</v>
@@ -3392,12 +3398,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>63</v>
@@ -3406,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>64</v>
@@ -3415,21 +3421,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>66</v>
@@ -3438,21 +3444,21 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>68</v>
@@ -3461,21 +3467,21 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>70</v>
@@ -3484,21 +3490,21 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>72</v>
@@ -3507,21 +3513,21 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>74</v>
@@ -3530,21 +3536,21 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>76</v>
@@ -3553,21 +3559,21 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>78</v>
@@ -3576,21 +3582,21 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>80</v>
@@ -3599,21 +3605,21 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>82</v>
@@ -3622,21 +3628,21 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>84</v>
@@ -3645,21 +3651,21 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>86</v>
@@ -3668,21 +3674,21 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>88</v>
@@ -3691,21 +3697,21 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>90</v>
@@ -3714,21 +3720,21 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>92</v>
@@ -3737,21 +3743,21 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>94</v>
@@ -3760,21 +3766,21 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>96</v>
@@ -3783,21 +3789,21 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>98</v>
@@ -3806,21 +3812,21 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>100</v>
@@ -3829,12 +3835,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>101</v>
@@ -3843,7 +3849,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>102</v>
@@ -3852,21 +3858,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>104</v>
@@ -3875,21 +3881,21 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>106</v>
@@ -3898,44 +3904,44 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>54</v>
@@ -3944,21 +3950,21 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>56</v>
@@ -3967,12 +3973,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>57</v>
@@ -3981,7 +3987,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>58</v>
@@ -3990,21 +3996,21 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>60</v>
@@ -4013,21 +4019,21 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>62</v>
@@ -4036,12 +4042,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>63</v>
@@ -4050,7 +4056,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>64</v>
@@ -4059,21 +4065,21 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>66</v>
@@ -4082,21 +4088,21 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>68</v>
@@ -4105,21 +4111,21 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>70</v>
@@ -4128,21 +4134,21 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>72</v>
@@ -4151,21 +4157,21 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>74</v>
@@ -4174,21 +4180,21 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>76</v>
@@ -4197,21 +4203,21 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>78</v>
@@ -4220,21 +4226,21 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>80</v>
@@ -4243,21 +4249,21 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>82</v>
@@ -4266,21 +4272,21 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>84</v>
@@ -4289,21 +4295,21 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>86</v>
@@ -4312,21 +4318,21 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>88</v>
@@ -4335,21 +4341,21 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>90</v>
@@ -4358,21 +4364,21 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>92</v>
@@ -4381,21 +4387,21 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>94</v>
@@ -4404,21 +4410,21 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>96</v>
@@ -4427,21 +4433,21 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>98</v>
@@ -4450,21 +4456,21 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>100</v>
@@ -4473,12 +4479,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>101</v>
@@ -4487,7 +4493,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>102</v>
@@ -4496,21 +4502,21 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>104</v>
@@ -4519,21 +4525,21 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>106</v>
@@ -4542,44 +4548,44 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>54</v>
@@ -4588,21 +4594,21 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>56</v>
@@ -4611,12 +4617,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>57</v>
@@ -4625,7 +4631,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>58</v>
@@ -4634,21 +4640,21 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>60</v>
@@ -4657,21 +4663,21 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>62</v>
@@ -4680,12 +4686,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>63</v>
@@ -4694,7 +4700,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>64</v>
@@ -4703,21 +4709,21 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>66</v>
@@ -4726,21 +4732,21 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>68</v>
@@ -4749,21 +4755,21 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>70</v>
@@ -4772,21 +4778,21 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>72</v>
@@ -4795,21 +4801,21 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>74</v>
@@ -4818,21 +4824,21 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>76</v>
@@ -4841,21 +4847,21 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>78</v>
@@ -4864,21 +4870,21 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>80</v>
@@ -4887,21 +4893,21 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>82</v>
@@ -4910,21 +4916,21 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>84</v>
@@ -4933,21 +4939,21 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>86</v>
@@ -4956,21 +4962,21 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>88</v>
@@ -4979,21 +4985,21 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>90</v>
@@ -5002,21 +5008,21 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>92</v>
@@ -5025,21 +5031,21 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>94</v>
@@ -5048,21 +5054,21 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>96</v>
@@ -5071,21 +5077,21 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>98</v>
@@ -5094,21 +5100,21 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>100</v>
@@ -5117,12 +5123,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>101</v>
@@ -5131,7 +5137,7 @@
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>102</v>
@@ -5140,21 +5146,21 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>104</v>
@@ -5163,21 +5169,21 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>106</v>
@@ -5186,67 +5192,67 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="E195" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>137</v>
@@ -5255,113 +5261,113 @@
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>141</v>
@@ -5370,21 +5376,21 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>143</v>
@@ -5393,21 +5399,21 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>145</v>
@@ -5416,21 +5422,21 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>147</v>
@@ -5439,44 +5445,44 @@
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C206" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>137</v>
@@ -5485,113 +5491,113 @@
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E208" s="2" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>141</v>
@@ -5600,21 +5606,21 @@
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>143</v>
@@ -5623,21 +5629,21 @@
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>145</v>
@@ -5646,21 +5652,21 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>147</v>
@@ -5669,44 +5675,44 @@
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>157</v>
@@ -5715,21 +5721,21 @@
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>159</v>
@@ -5738,21 +5744,21 @@
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>161</v>
@@ -5761,21 +5767,21 @@
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>163</v>
@@ -5784,21 +5790,21 @@
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>165</v>
@@ -5807,113 +5813,113 @@
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>173</v>
@@ -5922,21 +5928,21 @@
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>175</v>
@@ -5945,21 +5951,21 @@
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>177</v>
@@ -5968,44 +5974,44 @@
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C229" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>157</v>
@@ -6014,21 +6020,21 @@
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>159</v>
@@ -6037,21 +6043,21 @@
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>161</v>
@@ -6060,21 +6066,21 @@
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>163</v>
@@ -6083,21 +6089,21 @@
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>165</v>
@@ -6106,113 +6112,113 @@
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>173</v>
@@ -6221,21 +6227,21 @@
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>175</v>
@@ -6244,21 +6250,21 @@
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>177</v>
@@ -6267,7 +6273,7 @@
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242">
@@ -6275,59 +6281,59 @@
         <v>180</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="E242" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E243" s="2" t="s">
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>188</v>
@@ -6336,21 +6342,21 @@
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>190</v>
@@ -6359,21 +6365,21 @@
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>192</v>
@@ -6382,21 +6388,21 @@
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>194</v>
@@ -6405,21 +6411,21 @@
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>196</v>
@@ -6428,12 +6434,12 @@
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>197</v>
@@ -6442,7 +6448,7 @@
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>198</v>
@@ -6451,7 +6457,7 @@
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="250">
@@ -6459,36 +6465,36 @@
         <v>199</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>203</v>
@@ -6497,21 +6503,21 @@
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>205</v>
@@ -6520,44 +6526,44 @@
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="C253" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E253" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>211</v>
@@ -6566,21 +6572,21 @@
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>213</v>
@@ -6589,30 +6595,53 @@
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E256" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>16</v>
+      <c r="B257" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_999_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="218">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Data Evento</t>
@@ -718,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1063,13 +1069,13 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -1083,16 +1089,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -1106,13 +1112,13 @@
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -1135,7 +1141,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -1158,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -1172,19 +1178,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -1195,16 +1201,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
@@ -1218,16 +1224,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>58</v>
@@ -1241,16 +1247,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>60</v>
@@ -1264,16 +1270,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>62</v>
@@ -1287,7 +1293,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>63</v>
@@ -1296,7 +1302,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>64</v>
@@ -1310,16 +1316,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>66</v>
@@ -1333,7 +1339,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>67</v>
@@ -1342,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>68</v>
@@ -1356,7 +1362,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -1365,7 +1371,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
@@ -1379,16 +1385,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>72</v>
@@ -1402,7 +1408,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>73</v>
@@ -1411,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>74</v>
@@ -1425,7 +1431,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>75</v>
@@ -1434,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1448,7 +1454,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1457,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1471,7 +1477,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1480,7 +1486,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1494,16 +1500,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1517,7 +1523,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
@@ -1526,7 +1532,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1540,16 +1546,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
@@ -1563,7 +1569,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>87</v>
@@ -1572,7 +1578,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>88</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>89</v>
@@ -1595,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
@@ -1609,7 +1615,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>91</v>
@@ -1618,7 +1624,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1632,7 +1638,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1641,7 +1647,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1655,7 +1661,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
@@ -1664,7 +1670,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1678,7 +1684,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1687,7 +1693,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1701,7 +1707,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
@@ -1710,7 +1716,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1724,7 +1730,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1733,7 +1739,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1747,16 +1753,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1770,7 +1776,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1779,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1793,16 +1799,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1816,7 +1822,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
@@ -1825,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1839,7 +1845,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1848,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1862,7 +1868,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1871,7 +1877,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1885,7 +1891,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1894,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1908,19 +1914,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1931,16 +1937,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>56</v>
@@ -1954,16 +1960,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
@@ -1977,16 +1983,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>60</v>
@@ -2000,16 +2006,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>62</v>
@@ -2023,7 +2029,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
@@ -2032,7 +2038,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>64</v>
@@ -2046,16 +2052,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>66</v>
@@ -2069,7 +2075,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>67</v>
@@ -2078,7 +2084,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>68</v>
@@ -2092,7 +2098,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
@@ -2101,7 +2107,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>70</v>
@@ -2115,16 +2121,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>72</v>
@@ -2138,7 +2144,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>73</v>
@@ -2147,7 +2153,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>74</v>
@@ -2161,7 +2167,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
@@ -2170,7 +2176,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>76</v>
@@ -2184,7 +2190,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>77</v>
@@ -2193,7 +2199,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>78</v>
@@ -2207,7 +2213,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>79</v>
@@ -2216,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>80</v>
@@ -2230,16 +2236,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>82</v>
@@ -2253,7 +2259,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>83</v>
@@ -2262,7 +2268,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>84</v>
@@ -2276,16 +2282,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>86</v>
@@ -2299,7 +2305,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>87</v>
@@ -2308,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>88</v>
@@ -2322,7 +2328,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>89</v>
@@ -2331,7 +2337,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>90</v>
@@ -2345,7 +2351,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>91</v>
@@ -2354,7 +2360,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>92</v>
@@ -2368,7 +2374,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
@@ -2377,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>94</v>
@@ -2391,7 +2397,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>95</v>
@@ -2400,7 +2406,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>96</v>
@@ -2414,7 +2420,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
@@ -2423,7 +2429,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>98</v>
@@ -2437,7 +2443,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>99</v>
@@ -2446,7 +2452,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>100</v>
@@ -2460,7 +2466,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>101</v>
@@ -2469,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>102</v>
@@ -2483,16 +2489,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>104</v>
@@ -2506,7 +2512,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>105</v>
@@ -2515,7 +2521,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>106</v>
@@ -2529,16 +2535,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>108</v>
@@ -2552,7 +2558,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>109</v>
@@ -2561,7 +2567,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>110</v>
@@ -2575,7 +2581,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>111</v>
@@ -2584,7 +2590,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>112</v>
@@ -2598,7 +2604,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>113</v>
@@ -2607,7 +2613,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>114</v>
@@ -2621,7 +2627,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>115</v>
@@ -2630,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>116</v>
@@ -2647,7 +2653,7 @@
         <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2656,27 +2662,27 @@
         <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>56</v>
@@ -2685,21 +2691,21 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>58</v>
@@ -2708,21 +2714,21 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>60</v>
@@ -2731,21 +2737,21 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>62</v>
@@ -2754,12 +2760,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>63</v>
@@ -2768,7 +2774,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>64</v>
@@ -2777,21 +2783,21 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>66</v>
@@ -2800,12 +2806,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>67</v>
@@ -2814,7 +2820,7 @@
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>68</v>
@@ -2823,12 +2829,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>69</v>
@@ -2837,7 +2843,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>70</v>
@@ -2846,21 +2852,21 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>72</v>
@@ -2869,12 +2875,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>73</v>
@@ -2883,7 +2889,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>74</v>
@@ -2892,12 +2898,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>75</v>
@@ -2906,7 +2912,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>76</v>
@@ -2915,12 +2921,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>77</v>
@@ -2929,7 +2935,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>78</v>
@@ -2938,12 +2944,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>79</v>
@@ -2952,7 +2958,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>80</v>
@@ -2961,12 +2967,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>81</v>
@@ -2975,7 +2981,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>82</v>
@@ -2984,12 +2990,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>83</v>
@@ -2998,7 +3004,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>84</v>
@@ -3007,12 +3013,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>85</v>
@@ -3021,7 +3027,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>86</v>
@@ -3030,12 +3036,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>87</v>
@@ -3044,7 +3050,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>88</v>
@@ -3053,12 +3059,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>89</v>
@@ -3067,7 +3073,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>90</v>
@@ -3076,12 +3082,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>91</v>
@@ -3090,7 +3096,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>92</v>
@@ -3099,12 +3105,12 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>93</v>
@@ -3113,7 +3119,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>94</v>
@@ -3122,12 +3128,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>95</v>
@@ -3136,7 +3142,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>96</v>
@@ -3145,12 +3151,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>97</v>
@@ -3159,7 +3165,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>98</v>
@@ -3168,12 +3174,12 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>99</v>
@@ -3182,7 +3188,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>100</v>
@@ -3191,12 +3197,12 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>101</v>
@@ -3205,7 +3211,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>102</v>
@@ -3214,21 +3220,21 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>104</v>
@@ -3237,12 +3243,12 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>105</v>
@@ -3251,7 +3257,7 @@
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>106</v>
@@ -3260,21 +3266,21 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>108</v>
@@ -3283,44 +3289,44 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>56</v>
@@ -3329,21 +3335,21 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>58</v>
@@ -3352,21 +3358,21 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>60</v>
@@ -3375,21 +3381,21 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>62</v>
@@ -3398,12 +3404,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>63</v>
@@ -3412,7 +3418,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>64</v>
@@ -3421,21 +3427,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>66</v>
@@ -3444,12 +3450,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>67</v>
@@ -3458,7 +3464,7 @@
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>68</v>
@@ -3467,12 +3473,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>69</v>
@@ -3481,7 +3487,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>70</v>
@@ -3490,21 +3496,21 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>72</v>
@@ -3513,12 +3519,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>73</v>
@@ -3527,7 +3533,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>74</v>
@@ -3536,12 +3542,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>75</v>
@@ -3550,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>76</v>
@@ -3559,12 +3565,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>77</v>
@@ -3573,7 +3579,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>78</v>
@@ -3582,12 +3588,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>79</v>
@@ -3596,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>80</v>
@@ -3605,12 +3611,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>81</v>
@@ -3619,7 +3625,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>82</v>
@@ -3628,12 +3634,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>83</v>
@@ -3642,7 +3648,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>84</v>
@@ -3651,12 +3657,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>85</v>
@@ -3665,7 +3671,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>86</v>
@@ -3674,12 +3680,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>87</v>
@@ -3688,7 +3694,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>88</v>
@@ -3697,12 +3703,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>89</v>
@@ -3711,7 +3717,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>90</v>
@@ -3720,12 +3726,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>91</v>
@@ -3734,7 +3740,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>92</v>
@@ -3743,12 +3749,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>93</v>
@@ -3757,7 +3763,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>94</v>
@@ -3766,12 +3772,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>95</v>
@@ -3780,7 +3786,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>96</v>
@@ -3789,12 +3795,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>97</v>
@@ -3803,7 +3809,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>98</v>
@@ -3812,12 +3818,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>99</v>
@@ -3826,7 +3832,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>100</v>
@@ -3835,12 +3841,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>101</v>
@@ -3849,7 +3855,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>102</v>
@@ -3858,21 +3864,21 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>104</v>
@@ -3881,12 +3887,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>105</v>
@@ -3895,7 +3901,7 @@
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>106</v>
@@ -3904,21 +3910,21 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>108</v>
@@ -3927,44 +3933,44 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>56</v>
@@ -3973,21 +3979,21 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>58</v>
@@ -3996,21 +4002,21 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>60</v>
@@ -4019,21 +4025,21 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>62</v>
@@ -4042,12 +4048,12 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>63</v>
@@ -4056,7 +4062,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>64</v>
@@ -4065,21 +4071,21 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>66</v>
@@ -4088,12 +4094,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>67</v>
@@ -4102,7 +4108,7 @@
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>68</v>
@@ -4111,12 +4117,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>69</v>
@@ -4125,7 +4131,7 @@
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>70</v>
@@ -4134,21 +4140,21 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>72</v>
@@ -4157,12 +4163,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>73</v>
@@ -4171,7 +4177,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>74</v>
@@ -4180,12 +4186,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>75</v>
@@ -4194,7 +4200,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>76</v>
@@ -4203,12 +4209,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>77</v>
@@ -4217,7 +4223,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>78</v>
@@ -4226,12 +4232,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>79</v>
@@ -4240,7 +4246,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>80</v>
@@ -4249,12 +4255,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>81</v>
@@ -4263,7 +4269,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>82</v>
@@ -4272,12 +4278,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>83</v>
@@ -4286,7 +4292,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>84</v>
@@ -4295,12 +4301,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>85</v>
@@ -4309,7 +4315,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>86</v>
@@ -4318,12 +4324,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>87</v>
@@ -4332,7 +4338,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>88</v>
@@ -4341,12 +4347,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>89</v>
@@ -4355,7 +4361,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>90</v>
@@ -4364,12 +4370,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>91</v>
@@ -4378,7 +4384,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>92</v>
@@ -4387,12 +4393,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>93</v>
@@ -4401,7 +4407,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>94</v>
@@ -4410,12 +4416,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>95</v>
@@ -4424,7 +4430,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>96</v>
@@ -4433,12 +4439,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>97</v>
@@ -4447,7 +4453,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>98</v>
@@ -4456,12 +4462,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>99</v>
@@ -4470,7 +4476,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>100</v>
@@ -4479,12 +4485,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>101</v>
@@ -4493,7 +4499,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>102</v>
@@ -4502,21 +4508,21 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>104</v>
@@ -4525,12 +4531,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>105</v>
@@ -4539,7 +4545,7 @@
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>106</v>
@@ -4548,21 +4554,21 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>108</v>
@@ -4571,44 +4577,44 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>56</v>
@@ -4617,21 +4623,21 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>58</v>
@@ -4640,21 +4646,21 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>60</v>
@@ -4663,21 +4669,21 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>62</v>
@@ -4686,12 +4692,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>63</v>
@@ -4700,7 +4706,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>64</v>
@@ -4709,21 +4715,21 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>66</v>
@@ -4732,12 +4738,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>67</v>
@@ -4746,7 +4752,7 @@
         <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>68</v>
@@ -4755,12 +4761,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>69</v>
@@ -4769,7 +4775,7 @@
         <v>13</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>70</v>
@@ -4778,21 +4784,21 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>72</v>
@@ -4801,12 +4807,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>73</v>
@@ -4815,7 +4821,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>74</v>
@@ -4824,12 +4830,12 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>75</v>
@@ -4838,7 +4844,7 @@
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>76</v>
@@ -4847,12 +4853,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>77</v>
@@ -4861,7 +4867,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>78</v>
@@ -4870,12 +4876,12 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>79</v>
@@ -4884,7 +4890,7 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>80</v>
@@ -4893,12 +4899,12 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>81</v>
@@ -4907,7 +4913,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>82</v>
@@ -4916,12 +4922,12 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>83</v>
@@ -4930,7 +4936,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>84</v>
@@ -4939,12 +4945,12 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>85</v>
@@ -4953,7 +4959,7 @@
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>86</v>
@@ -4962,12 +4968,12 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>87</v>
@@ -4976,7 +4982,7 @@
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>88</v>
@@ -4985,12 +4991,12 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>89</v>
@@ -4999,7 +5005,7 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>90</v>
@@ -5008,12 +5014,12 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>91</v>
@@ -5022,7 +5028,7 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>92</v>
@@ -5031,12 +5037,12 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>93</v>
@@ -5045,7 +5051,7 @@
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>94</v>
@@ -5054,12 +5060,12 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>95</v>
@@ -5068,7 +5074,7 @@
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>96</v>
@@ -5077,12 +5083,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>97</v>
@@ -5091,7 +5097,7 @@
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>98</v>
@@ -5100,12 +5106,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>99</v>
@@ -5114,7 +5120,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>100</v>
@@ -5123,12 +5129,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>101</v>
@@ -5137,7 +5143,7 @@
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>102</v>
@@ -5146,21 +5152,21 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>104</v>
@@ -5169,12 +5175,12 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>105</v>
@@ -5183,7 +5189,7 @@
         <v>13</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>106</v>
@@ -5192,21 +5198,21 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>108</v>
@@ -5215,67 +5221,67 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="E196" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="2" t="s">
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>139</v>
@@ -5284,58 +5290,58 @@
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>47</v>
@@ -5344,21 +5350,21 @@
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>49</v>
@@ -5367,30 +5373,30 @@
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>143</v>
@@ -5399,12 +5405,12 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>144</v>
@@ -5413,7 +5419,7 @@
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>145</v>
@@ -5422,12 +5428,12 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>146</v>
@@ -5436,7 +5442,7 @@
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>147</v>
@@ -5445,12 +5451,12 @@
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>148</v>
@@ -5459,7 +5465,7 @@
         <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>149</v>
@@ -5468,44 +5474,44 @@
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>139</v>
@@ -5514,58 +5520,58 @@
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E209" s="2" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>47</v>
@@ -5574,21 +5580,21 @@
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>49</v>
@@ -5597,30 +5603,30 @@
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>143</v>
@@ -5629,12 +5635,12 @@
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>144</v>
@@ -5643,7 +5649,7 @@
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>145</v>
@@ -5652,12 +5658,12 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>146</v>
@@ -5666,7 +5672,7 @@
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>147</v>
@@ -5675,12 +5681,12 @@
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>148</v>
@@ -5689,7 +5695,7 @@
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>149</v>
@@ -5698,44 +5704,44 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>159</v>
@@ -5749,7 +5755,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>160</v>
@@ -5758,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>161</v>
@@ -5772,7 +5778,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>162</v>
@@ -5781,7 +5787,7 @@
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>163</v>
@@ -5795,7 +5801,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>164</v>
@@ -5804,7 +5810,7 @@
         <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>165</v>
@@ -5818,7 +5824,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>166</v>
@@ -5827,7 +5833,7 @@
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>167</v>
@@ -5841,7 +5847,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>168</v>
@@ -5850,10 +5856,10 @@
         <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
@@ -5864,19 +5870,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
@@ -5887,7 +5893,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>171</v>
@@ -5896,10 +5902,10 @@
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
@@ -5910,19 +5916,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
@@ -5933,7 +5939,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>174</v>
@@ -5942,7 +5948,7 @@
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>175</v>
@@ -5956,7 +5962,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>176</v>
@@ -5965,7 +5971,7 @@
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>177</v>
@@ -5979,7 +5985,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>178</v>
@@ -5988,7 +5994,7 @@
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>179</v>
@@ -6002,19 +6008,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
@@ -6025,16 +6031,16 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>159</v>
@@ -6048,7 +6054,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>160</v>
@@ -6057,7 +6063,7 @@
         <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>161</v>
@@ -6071,7 +6077,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>162</v>
@@ -6080,7 +6086,7 @@
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>163</v>
@@ -6094,7 +6100,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>164</v>
@@ -6103,7 +6109,7 @@
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>165</v>
@@ -6117,7 +6123,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>166</v>
@@ -6126,7 +6132,7 @@
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>167</v>
@@ -6140,7 +6146,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>168</v>
@@ -6149,10 +6155,10 @@
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
@@ -6163,19 +6169,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
@@ -6186,7 +6192,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>171</v>
@@ -6195,10 +6201,10 @@
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
@@ -6209,19 +6215,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
@@ -6232,7 +6238,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>174</v>
@@ -6241,7 +6247,7 @@
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>175</v>
@@ -6255,7 +6261,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>176</v>
@@ -6264,7 +6270,7 @@
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>177</v>
@@ -6278,7 +6284,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>178</v>
@@ -6287,7 +6293,7 @@
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>179</v>
@@ -6304,50 +6310,50 @@
         <v>182</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="E243" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E244" s="2" t="s">
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>189</v>
@@ -6356,7 +6362,7 @@
         <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>190</v>
@@ -6365,12 +6371,12 @@
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>191</v>
@@ -6379,7 +6385,7 @@
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>192</v>
@@ -6388,12 +6394,12 @@
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>193</v>
@@ -6402,7 +6408,7 @@
         <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>194</v>
@@ -6411,12 +6417,12 @@
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>195</v>
@@ -6425,7 +6431,7 @@
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>196</v>
@@ -6434,12 +6440,12 @@
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>197</v>
@@ -6448,7 +6454,7 @@
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>198</v>
@@ -6457,21 +6463,21 @@
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>200</v>
@@ -6480,7 +6486,7 @@
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="251">
@@ -6488,16 +6494,16 @@
         <v>201</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
@@ -6508,7 +6514,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>204</v>
@@ -6517,7 +6523,7 @@
         <v>13</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>205</v>
@@ -6531,7 +6537,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>206</v>
@@ -6540,7 +6546,7 @@
         <v>13</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>207</v>
@@ -6554,19 +6560,19 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="C254" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
@@ -6577,16 +6583,16 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>213</v>
@@ -6600,7 +6606,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>214</v>
@@ -6609,7 +6615,7 @@
         <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>215</v>
@@ -6623,24 +6629,47 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E257" s="2" t="s">
+      <c r="C258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F257" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" s="2" t="s">
+      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>19</v>
       </c>
     </row>
